--- a/output.xlsx
+++ b/output.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Скважины</t>
+          <t>Скважина</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -450,7 +450,7 @@
         <v>1591</v>
       </c>
       <c r="B2" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>1620</v>
       </c>
       <c r="B4" t="n">
-        <v>1.3</v>
+        <v>59.471</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         <v>1630</v>
       </c>
       <c r="B5" t="n">
-        <v>1.31</v>
+        <v>158.589</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1631</v>
       </c>
       <c r="B7" t="n">
-        <v>1.31</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>1640</v>
       </c>
       <c r="B9" t="n">
-        <v>1.31</v>
+        <v>45.311</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>1641</v>
       </c>
       <c r="B10" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>1642</v>
       </c>
       <c r="B11" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>1650</v>
       </c>
       <c r="B12" t="n">
-        <v>1.31</v>
+        <v>62.303</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>1651</v>
       </c>
       <c r="B13" t="n">
-        <v>1.31</v>
+        <v>100.534</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>1660</v>
       </c>
       <c r="B14" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>1661</v>
       </c>
       <c r="B15" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>1662</v>
       </c>
       <c r="B16" t="n">
-        <v>1.31</v>
+        <v>84.958</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>1670</v>
       </c>
       <c r="B17" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>1671</v>
       </c>
       <c r="B18" t="n">
-        <v>1.31</v>
+        <v>131.686</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>1680</v>
       </c>
       <c r="B19" t="n">
-        <v>1.31</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>1681</v>
       </c>
       <c r="B20" t="n">
-        <v>1.31</v>
+        <v>133.102</v>
       </c>
     </row>
     <row r="21">
@@ -594,7 +594,7 @@
         <v>1682</v>
       </c>
       <c r="B22" t="n">
-        <v>1.31</v>
+        <v>70.79900000000001</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>1690</v>
       </c>
       <c r="B24" t="n">
-        <v>1.32</v>
+        <v>65.13500000000001</v>
       </c>
     </row>
     <row r="25">
@@ -614,7 +614,7 @@
         <v>1691</v>
       </c>
       <c r="B25" t="n">
-        <v>1.32</v>
+        <v>46.727</v>
       </c>
     </row>
     <row r="26">
@@ -622,7 +622,7 @@
         <v>1700</v>
       </c>
       <c r="B26" t="n">
-        <v>1.32</v>
+        <v>41.063</v>
       </c>
     </row>
     <row r="27">
@@ -630,7 +630,7 @@
         <v>1701</v>
       </c>
       <c r="B27" t="n">
-        <v>1.32</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="28">
@@ -638,7 +638,7 @@
         <v>1702</v>
       </c>
       <c r="B28" t="n">
-        <v>1.32</v>
+        <v>169.917</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         <v>1710</v>
       </c>
       <c r="B29" t="n">
-        <v>1.31</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="30">
@@ -654,7 +654,7 @@
         <v>1711</v>
       </c>
       <c r="B30" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="31">
@@ -662,7 +662,7 @@
         <v>1720</v>
       </c>
       <c r="B31" t="n">
-        <v>1.32</v>
+        <v>79.295</v>
       </c>
     </row>
     <row r="32">
@@ -670,7 +670,7 @@
         <v>1721</v>
       </c>
       <c r="B32" t="n">
-        <v>1.32</v>
+        <v>155.757</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         <v>1730</v>
       </c>
       <c r="B35" t="n">
-        <v>1.31</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="36">
@@ -694,7 +694,7 @@
         <v>1731</v>
       </c>
       <c r="B36" t="n">
-        <v>1.31</v>
+        <v>35.399</v>
       </c>
     </row>
     <row r="37">
@@ -702,7 +702,7 @@
         <v>1740</v>
       </c>
       <c r="B37" t="n">
-        <v>1.32</v>
+        <v>66.551</v>
       </c>
     </row>
     <row r="38">
@@ -714,7 +714,7 @@
         <v>1741</v>
       </c>
       <c r="B39" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="40">
@@ -722,7 +722,7 @@
         <v>1750</v>
       </c>
       <c r="B40" t="n">
-        <v>1.31</v>
+        <v>175.581</v>
       </c>
     </row>
     <row r="41">
@@ -730,7 +730,7 @@
         <v>1751</v>
       </c>
       <c r="B41" t="n">
-        <v>1.31</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="42">
@@ -742,7 +742,7 @@
         <v>1752</v>
       </c>
       <c r="B43" t="n">
-        <v>1.31</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="44">
@@ -750,7 +750,7 @@
         <v>1770</v>
       </c>
       <c r="B44" t="n">
-        <v>1.32</v>
+        <v>172.749</v>
       </c>
     </row>
     <row r="45">
@@ -762,7 +762,7 @@
         <v>1771</v>
       </c>
       <c r="B46" t="n">
-        <v>1.32</v>
+        <v>185.493</v>
       </c>
     </row>
     <row r="47">
@@ -770,7 +770,7 @@
         <v>1780</v>
       </c>
       <c r="B47" t="n">
-        <v>1.32</v>
+        <v>147.262</v>
       </c>
     </row>
     <row r="48">
@@ -778,7 +778,7 @@
         <v>1781</v>
       </c>
       <c r="B48" t="n">
-        <v>1.32</v>
+        <v>143.014</v>
       </c>
     </row>
     <row r="49">
@@ -786,7 +786,7 @@
         <v>1782</v>
       </c>
       <c r="B49" t="n">
-        <v>1.32</v>
+        <v>113.278</v>
       </c>
     </row>
     <row r="50">
@@ -794,7 +794,7 @@
         <v>1790</v>
       </c>
       <c r="B50" t="n">
-        <v>1.31</v>
+        <v>97.702</v>
       </c>
     </row>
     <row r="51">
@@ -802,7 +802,7 @@
         <v>1791</v>
       </c>
       <c r="B51" t="n">
-        <v>1.31</v>
+        <v>134.518</v>
       </c>
     </row>
     <row r="52">
@@ -810,7 +810,7 @@
         <v>1792</v>
       </c>
       <c r="B52" t="n">
-        <v>1.31</v>
+        <v>82.127</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1800</v>
       </c>
       <c r="B53" t="n">
-        <v>1.32</v>
+        <v>162.837</v>
       </c>
     </row>
     <row r="54">
@@ -826,7 +826,7 @@
         <v>1801</v>
       </c>
       <c r="B54" t="n">
-        <v>1.32</v>
+        <v>209.564</v>
       </c>
     </row>
     <row r="55">
@@ -834,7 +834,7 @@
         <v>1802</v>
       </c>
       <c r="B55" t="n">
-        <v>1.32</v>
+        <v>191.157</v>
       </c>
     </row>
     <row r="56">
@@ -842,7 +842,7 @@
         <v>1810</v>
       </c>
       <c r="B56" t="n">
-        <v>1.31</v>
+        <v>277.531</v>
       </c>
     </row>
     <row r="57">
@@ -850,7 +850,7 @@
         <v>1811</v>
       </c>
       <c r="B57" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="58">
@@ -858,7 +858,7 @@
         <v>1812</v>
       </c>
       <c r="B58" t="n">
-        <v>1.31</v>
+        <v>254.876</v>
       </c>
     </row>
     <row r="59">
@@ -866,7 +866,7 @@
         <v>1820</v>
       </c>
       <c r="B59" t="n">
-        <v>1.31</v>
+        <v>199.653</v>
       </c>
     </row>
     <row r="60">
@@ -874,7 +874,7 @@
         <v>1821</v>
       </c>
       <c r="B60" t="n">
-        <v>1.31</v>
+        <v>176.997</v>
       </c>
     </row>
     <row r="61">
@@ -882,7 +882,7 @@
         <v>1822</v>
       </c>
       <c r="B61" t="n">
-        <v>1.31</v>
+        <v>67.967</v>
       </c>
     </row>
     <row r="62">
@@ -890,7 +890,7 @@
         <v>1830</v>
       </c>
       <c r="B62" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="63">
@@ -898,7 +898,7 @@
         <v>1831</v>
       </c>
       <c r="B63" t="n">
-        <v>1.32</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="64">
@@ -906,7 +906,7 @@
         <v>1832</v>
       </c>
       <c r="B64" t="n">
-        <v>1.32</v>
+        <v>137.35</v>
       </c>
     </row>
     <row r="65">
@@ -914,7 +914,7 @@
         <v>1840</v>
       </c>
       <c r="B65" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="66">
@@ -922,7 +922,7 @@
         <v>1841</v>
       </c>
       <c r="B66" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="67">
@@ -930,7 +930,7 @@
         <v>1842</v>
       </c>
       <c r="B67" t="n">
-        <v>1.33</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="68">
@@ -938,7 +938,7 @@
         <v>1850</v>
       </c>
       <c r="B68" t="n">
-        <v>1.31</v>
+        <v>181.245</v>
       </c>
     </row>
     <row r="69">
@@ -946,7 +946,7 @@
         <v>1851</v>
       </c>
       <c r="B69" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="70">
@@ -954,7 +954,7 @@
         <v>1860</v>
       </c>
       <c r="B70" t="n">
-        <v>1.32</v>
+        <v>168.501</v>
       </c>
     </row>
     <row r="71">
@@ -962,7 +962,7 @@
         <v>1861</v>
       </c>
       <c r="B71" t="n">
-        <v>1.32</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="72">
@@ -970,7 +970,7 @@
         <v>1863</v>
       </c>
       <c r="B72" t="n">
-        <v>1.32</v>
+        <v>300.187</v>
       </c>
     </row>
     <row r="73">
@@ -978,7 +978,7 @@
         <v>1870</v>
       </c>
       <c r="B73" t="n">
-        <v>1.31</v>
+        <v>184.077</v>
       </c>
     </row>
     <row r="74">
@@ -986,7 +986,7 @@
         <v>1871</v>
       </c>
       <c r="B74" t="n">
-        <v>1.31</v>
+        <v>117.526</v>
       </c>
     </row>
     <row r="75">
@@ -994,7 +994,7 @@
         <v>1872</v>
       </c>
       <c r="B75" t="n">
-        <v>1.31</v>
+        <v>152.925</v>
       </c>
     </row>
     <row r="76">
@@ -1002,7 +1002,7 @@
         <v>1880</v>
       </c>
       <c r="B76" t="n">
-        <v>1.33</v>
+        <v>218.06</v>
       </c>
     </row>
     <row r="77">
@@ -1010,7 +1010,7 @@
         <v>1881</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33</v>
+        <v>151.509</v>
       </c>
     </row>
     <row r="78">
@@ -1018,7 +1018,7 @@
         <v>1882</v>
       </c>
       <c r="B78" t="n">
-        <v>1.33</v>
+        <v>154.341</v>
       </c>
     </row>
     <row r="79">
@@ -1030,7 +1030,7 @@
         <v>1890</v>
       </c>
       <c r="B80" t="n">
-        <v>1.2</v>
+        <v>271.867</v>
       </c>
     </row>
     <row r="81">
@@ -1038,7 +1038,7 @@
         <v>1891</v>
       </c>
       <c r="B81" t="n">
-        <v>1.2</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="82">
@@ -1046,7 +1046,7 @@
         <v>1900</v>
       </c>
       <c r="B82" t="n">
-        <v>1.31</v>
+        <v>249.212</v>
       </c>
     </row>
     <row r="83">
@@ -1058,15 +1058,15 @@
         <v>1901</v>
       </c>
       <c r="B84" t="n">
-        <v>1.31</v>
+        <v>312.931</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.4</v>
+        <v>1254.7</v>
       </c>
       <c r="B85" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="86">
@@ -1075,18 +1075,18 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1166.85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.3</v>
+        <v>59.471</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1193.92</v>
       </c>
       <c r="B88" t="n">
-        <v>1.31</v>
+        <v>158.589</v>
       </c>
     </row>
     <row r="89">
@@ -1095,10 +1095,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1218.9</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="91">
@@ -1107,98 +1107,98 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.4</v>
+        <v>1160</v>
       </c>
       <c r="B92" t="n">
-        <v>1.31</v>
+        <v>45.311</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.7</v>
+        <v>1174.4</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1185.4</v>
       </c>
       <c r="B94" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1169.5</v>
       </c>
       <c r="B95" t="n">
-        <v>1.31</v>
+        <v>62.303</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1185.77</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31</v>
+        <v>100.534</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1161.72</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="B98" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1175.5</v>
       </c>
       <c r="B99" t="n">
-        <v>1.31</v>
+        <v>84.958</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1173.5</v>
       </c>
       <c r="B100" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1213.2</v>
       </c>
       <c r="B101" t="n">
-        <v>1.31</v>
+        <v>131.686</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1132.3</v>
       </c>
       <c r="B102" t="n">
-        <v>1.31</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.4</v>
+        <v>1218.2</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31</v>
+        <v>133.102</v>
       </c>
     </row>
     <row r="104">
@@ -1207,86 +1207,88 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1018.36</v>
       </c>
       <c r="B105" t="n">
-        <v>1.31</v>
+        <v>70.79900000000001</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="n">
+        <v>1198.9</v>
+      </c>
       <c r="B106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1159.77</v>
       </c>
       <c r="B107" t="n">
-        <v>1.32</v>
+        <v>65.13500000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1191.2</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32</v>
+        <v>46.727</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1180.3</v>
       </c>
       <c r="B109" t="n">
-        <v>1.32</v>
+        <v>41.063</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1214.4</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1135.6</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32</v>
+        <v>169.917</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1152.3</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1211.95</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1201.8</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32</v>
+        <v>79.295</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1163.1</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32</v>
+        <v>155.757</v>
       </c>
     </row>
     <row r="116">
@@ -1299,26 +1301,26 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>1172.9</v>
       </c>
       <c r="B118" t="n">
-        <v>1.31</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1175.4</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31</v>
+        <v>35.399</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1175.7</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32</v>
+        <v>66.551</v>
       </c>
     </row>
     <row r="121">
@@ -1327,26 +1329,26 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="B122" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.2</v>
+        <v>1184.8</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31</v>
+        <v>175.581</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1173.4</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="125">
@@ -1355,286 +1357,288 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4</v>
+        <v>1184.57</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>941.5</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32</v>
+        <v>172.749</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="n">
+        <v>1155.9</v>
+      </c>
       <c r="B128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1159.7</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32</v>
+        <v>185.493</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1184.7</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32</v>
+        <v>147.262</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1188.9</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32</v>
+        <v>143.014</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>1181.2</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32</v>
+        <v>113.278</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1143.8</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31</v>
+        <v>97.702</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1224.3</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31</v>
+        <v>134.518</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1189.9</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31</v>
+        <v>82.127</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1203.4</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32</v>
+        <v>162.837</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32</v>
+        <v>209.564</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1178.8</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32</v>
+        <v>191.157</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1183.8</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31</v>
+        <v>277.531</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1214.7</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>1154.2</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31</v>
+        <v>254.876</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1201.8</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31</v>
+        <v>199.653</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1164.7</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31</v>
+        <v>176.997</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1202.19</v>
       </c>
       <c r="B144" t="n">
-        <v>1.31</v>
+        <v>67.967</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1181.3</v>
       </c>
       <c r="B145" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1166.2</v>
       </c>
       <c r="B146" t="n">
-        <v>1.32</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.6</v>
+        <v>1175.27</v>
       </c>
       <c r="B147" t="n">
-        <v>1.32</v>
+        <v>137.35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1210.3</v>
       </c>
       <c r="B148" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1174.1</v>
       </c>
       <c r="B149" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1222.7</v>
       </c>
       <c r="B150" t="n">
-        <v>1.33</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1160.4</v>
       </c>
       <c r="B151" t="n">
-        <v>1.31</v>
+        <v>181.245</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1146.8</v>
       </c>
       <c r="B152" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1189.9</v>
       </c>
       <c r="B153" t="n">
-        <v>1.32</v>
+        <v>168.501</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1209.5</v>
       </c>
       <c r="B154" t="n">
-        <v>1.32</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1184.5</v>
       </c>
       <c r="B155" t="n">
-        <v>1.32</v>
+        <v>300.187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1182.5</v>
       </c>
       <c r="B156" t="n">
-        <v>1.31</v>
+        <v>184.077</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.2</v>
+        <v>1189</v>
       </c>
       <c r="B157" t="n">
-        <v>1.31</v>
+        <v>117.526</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>1216.5</v>
       </c>
       <c r="B158" t="n">
-        <v>1.31</v>
+        <v>152.925</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="B159" t="n">
-        <v>1.33</v>
+        <v>218.06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.3</v>
+        <v>1141.9</v>
       </c>
       <c r="B160" t="n">
-        <v>1.33</v>
+        <v>151.509</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="B161" t="n">
-        <v>1.33</v>
+        <v>154.341</v>
       </c>
     </row>
     <row r="162">
@@ -1643,26 +1647,26 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1154.6</v>
       </c>
       <c r="B163" t="n">
-        <v>1.2</v>
+        <v>271.867</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1172.04</v>
       </c>
       <c r="B164" t="n">
-        <v>1.2</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1203.9</v>
       </c>
       <c r="B165" t="n">
-        <v>1.31</v>
+        <v>249.212</v>
       </c>
     </row>
     <row r="166">
@@ -1671,18 +1675,18 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.7</v>
+        <v>1160.7</v>
       </c>
       <c r="B167" t="n">
-        <v>1.31</v>
+        <v>312.931</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
       <c r="B168" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="169">
@@ -1691,18 +1695,18 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.3</v>
+        <v>59.471</v>
       </c>
       <c r="B170" t="n">
-        <v>1.3</v>
+        <v>59.471</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.31</v>
+        <v>158.589</v>
       </c>
       <c r="B171" t="n">
-        <v>1.31</v>
+        <v>158.589</v>
       </c>
     </row>
     <row r="172">
@@ -1711,10 +1715,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.31</v>
+        <v>145.846</v>
       </c>
       <c r="B173" t="n">
-        <v>1.31</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="174">
@@ -1723,98 +1727,98 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.31</v>
+        <v>45.311</v>
       </c>
       <c r="B175" t="n">
-        <v>1.31</v>
+        <v>45.311</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
       <c r="B176" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
       <c r="B177" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.31</v>
+        <v>62.303</v>
       </c>
       <c r="B178" t="n">
-        <v>1.31</v>
+        <v>62.303</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.31</v>
+        <v>100.534</v>
       </c>
       <c r="B179" t="n">
-        <v>1.31</v>
+        <v>100.534</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
       <c r="B180" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
       <c r="B181" t="n">
-        <v>1.31</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.31</v>
+        <v>84.958</v>
       </c>
       <c r="B182" t="n">
-        <v>1.31</v>
+        <v>84.958</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
       <c r="B183" t="n">
-        <v>1.31</v>
+        <v>49.559</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.31</v>
+        <v>131.686</v>
       </c>
       <c r="B184" t="n">
-        <v>1.31</v>
+        <v>131.686</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.31</v>
+        <v>222.308</v>
       </c>
       <c r="B185" t="n">
-        <v>1.31</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.31</v>
+        <v>133.102</v>
       </c>
       <c r="B186" t="n">
-        <v>1.31</v>
+        <v>133.102</v>
       </c>
     </row>
     <row r="187">
@@ -1823,10 +1827,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.31</v>
+        <v>70.79900000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>1.31</v>
+        <v>70.79900000000001</v>
       </c>
     </row>
     <row r="189">
@@ -1835,74 +1839,74 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.32</v>
+        <v>65.13500000000001</v>
       </c>
       <c r="B190" t="n">
-        <v>1.32</v>
+        <v>65.13500000000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.32</v>
+        <v>46.727</v>
       </c>
       <c r="B191" t="n">
-        <v>1.32</v>
+        <v>46.727</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.32</v>
+        <v>41.063</v>
       </c>
       <c r="B192" t="n">
-        <v>1.32</v>
+        <v>41.063</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.32</v>
+        <v>123.19</v>
       </c>
       <c r="B193" t="n">
-        <v>1.32</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.32</v>
+        <v>169.917</v>
       </c>
       <c r="B194" t="n">
-        <v>1.32</v>
+        <v>169.917</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.31</v>
+        <v>150.093</v>
       </c>
       <c r="B195" t="n">
-        <v>1.31</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
       <c r="B196" t="n">
-        <v>1.31</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.32</v>
+        <v>79.295</v>
       </c>
       <c r="B197" t="n">
-        <v>1.32</v>
+        <v>79.295</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.32</v>
+        <v>155.757</v>
       </c>
       <c r="B198" t="n">
-        <v>1.32</v>
+        <v>155.757</v>
       </c>
     </row>
     <row r="199">
@@ -1915,26 +1919,26 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.31</v>
+        <v>178.413</v>
       </c>
       <c r="B201" t="n">
-        <v>1.31</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.31</v>
+        <v>35.399</v>
       </c>
       <c r="B202" t="n">
-        <v>1.31</v>
+        <v>35.399</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.32</v>
+        <v>66.551</v>
       </c>
       <c r="B203" t="n">
-        <v>1.32</v>
+        <v>66.551</v>
       </c>
     </row>
     <row r="204">
@@ -1943,26 +1947,26 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
       <c r="B205" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.31</v>
+        <v>175.581</v>
       </c>
       <c r="B206" t="n">
-        <v>1.31</v>
+        <v>175.581</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.31</v>
+        <v>94.87</v>
       </c>
       <c r="B207" t="n">
-        <v>1.31</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="208">
@@ -1971,18 +1975,18 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.31</v>
+        <v>101.95</v>
       </c>
       <c r="B209" t="n">
-        <v>1.31</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.32</v>
+        <v>172.749</v>
       </c>
       <c r="B210" t="n">
-        <v>1.32</v>
+        <v>172.749</v>
       </c>
     </row>
     <row r="211">
@@ -1991,266 +1995,266 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.32</v>
+        <v>185.493</v>
       </c>
       <c r="B212" t="n">
-        <v>1.32</v>
+        <v>185.493</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.32</v>
+        <v>147.262</v>
       </c>
       <c r="B213" t="n">
-        <v>1.32</v>
+        <v>147.262</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.32</v>
+        <v>143.014</v>
       </c>
       <c r="B214" t="n">
-        <v>1.32</v>
+        <v>143.014</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.32</v>
+        <v>113.278</v>
       </c>
       <c r="B215" t="n">
-        <v>1.32</v>
+        <v>113.278</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.31</v>
+        <v>97.702</v>
       </c>
       <c r="B216" t="n">
-        <v>1.31</v>
+        <v>97.702</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.31</v>
+        <v>134.518</v>
       </c>
       <c r="B217" t="n">
-        <v>1.31</v>
+        <v>134.518</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.31</v>
+        <v>82.127</v>
       </c>
       <c r="B218" t="n">
-        <v>1.31</v>
+        <v>82.127</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.32</v>
+        <v>162.837</v>
       </c>
       <c r="B219" t="n">
-        <v>1.32</v>
+        <v>162.837</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.32</v>
+        <v>209.564</v>
       </c>
       <c r="B220" t="n">
-        <v>1.32</v>
+        <v>209.564</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.32</v>
+        <v>191.157</v>
       </c>
       <c r="B221" t="n">
-        <v>1.32</v>
+        <v>191.157</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.31</v>
+        <v>277.531</v>
       </c>
       <c r="B222" t="n">
-        <v>1.31</v>
+        <v>277.531</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
       <c r="B223" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.31</v>
+        <v>254.876</v>
       </c>
       <c r="B224" t="n">
-        <v>1.31</v>
+        <v>254.876</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.31</v>
+        <v>199.653</v>
       </c>
       <c r="B225" t="n">
-        <v>1.31</v>
+        <v>199.653</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.31</v>
+        <v>176.997</v>
       </c>
       <c r="B226" t="n">
-        <v>1.31</v>
+        <v>176.997</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.31</v>
+        <v>67.967</v>
       </c>
       <c r="B227" t="n">
-        <v>1.31</v>
+        <v>67.967</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
       <c r="B228" t="n">
-        <v>1.32</v>
+        <v>150.093</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.32</v>
+        <v>145.846</v>
       </c>
       <c r="B229" t="n">
-        <v>1.32</v>
+        <v>145.846</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.32</v>
+        <v>137.35</v>
       </c>
       <c r="B230" t="n">
-        <v>1.32</v>
+        <v>137.35</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
       <c r="B231" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
       <c r="B232" t="n">
-        <v>1.33</v>
+        <v>281.779</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.33</v>
+        <v>222.308</v>
       </c>
       <c r="B233" t="n">
-        <v>1.33</v>
+        <v>222.308</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.31</v>
+        <v>181.245</v>
       </c>
       <c r="B234" t="n">
-        <v>1.31</v>
+        <v>181.245</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
       <c r="B235" t="n">
-        <v>1.31</v>
+        <v>107.614</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.32</v>
+        <v>168.501</v>
       </c>
       <c r="B236" t="n">
-        <v>1.32</v>
+        <v>168.501</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.32</v>
+        <v>178.413</v>
       </c>
       <c r="B237" t="n">
-        <v>1.32</v>
+        <v>178.413</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.32</v>
+        <v>300.187</v>
       </c>
       <c r="B238" t="n">
-        <v>1.32</v>
+        <v>300.187</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.31</v>
+        <v>184.077</v>
       </c>
       <c r="B239" t="n">
-        <v>1.31</v>
+        <v>184.077</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.31</v>
+        <v>117.526</v>
       </c>
       <c r="B240" t="n">
-        <v>1.31</v>
+        <v>117.526</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.31</v>
+        <v>152.925</v>
       </c>
       <c r="B241" t="n">
-        <v>1.31</v>
+        <v>152.925</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1.33</v>
+        <v>218.06</v>
       </c>
       <c r="B242" t="n">
-        <v>1.33</v>
+        <v>218.06</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.33</v>
+        <v>151.509</v>
       </c>
       <c r="B243" t="n">
-        <v>1.33</v>
+        <v>151.509</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.33</v>
+        <v>154.341</v>
       </c>
       <c r="B244" t="n">
-        <v>1.33</v>
+        <v>154.341</v>
       </c>
     </row>
     <row r="245">
@@ -2259,26 +2263,26 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.2</v>
+        <v>271.867</v>
       </c>
       <c r="B246" t="n">
-        <v>1.2</v>
+        <v>271.867</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1.2</v>
+        <v>94.87</v>
       </c>
       <c r="B247" t="n">
-        <v>1.2</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.31</v>
+        <v>249.212</v>
       </c>
       <c r="B248" t="n">
-        <v>1.31</v>
+        <v>249.212</v>
       </c>
     </row>
     <row r="249">
@@ -2287,10 +2291,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.31</v>
+        <v>312.931</v>
       </c>
       <c r="B250" t="n">
-        <v>1.31</v>
+        <v>312.931</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Скважина</t>
+          <t>Скважины</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -444,25 +444,37 @@
           <t>Добыча</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Газ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1591</v>
       </c>
       <c r="B2" t="n">
-        <v>77.879</v>
+        <v>2096.235</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2096.235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1620</v>
       </c>
       <c r="B4" t="n">
-        <v>59.471</v>
+        <v>1841.123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1841.123</v>
       </c>
     </row>
     <row r="5">
@@ -470,31 +482,42 @@
         <v>1630</v>
       </c>
       <c r="B5" t="n">
-        <v>158.589</v>
+        <v>4757.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4757.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1631</v>
       </c>
       <c r="B7" t="n">
-        <v>145.846</v>
+        <v>3943.907</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3943.907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1640</v>
       </c>
       <c r="B9" t="n">
-        <v>45.311</v>
+        <v>1404.648</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1404.648</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +525,10 @@
         <v>1641</v>
       </c>
       <c r="B10" t="n">
-        <v>49.559</v>
+        <v>1536.334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1536.334</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +536,10 @@
         <v>1642</v>
       </c>
       <c r="B11" t="n">
-        <v>49.559</v>
+        <v>1536.334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1536.334</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +547,10 @@
         <v>1650</v>
       </c>
       <c r="B12" t="n">
-        <v>62.303</v>
+        <v>1931.392</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1931.392</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +558,10 @@
         <v>1651</v>
       </c>
       <c r="B13" t="n">
-        <v>100.534</v>
+        <v>3116.564</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3116.564</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +569,10 @@
         <v>1660</v>
       </c>
       <c r="B14" t="n">
-        <v>56.639</v>
+        <v>1753.45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1753.45</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +580,10 @@
         <v>1661</v>
       </c>
       <c r="B15" t="n">
-        <v>56.639</v>
+        <v>1753.45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1753.45</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +591,10 @@
         <v>1662</v>
       </c>
       <c r="B16" t="n">
-        <v>84.958</v>
+        <v>223.016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>223.016</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +602,10 @@
         <v>1670</v>
       </c>
       <c r="B17" t="n">
-        <v>49.559</v>
+        <v>1536.334</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1536.334</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +613,10 @@
         <v>1671</v>
       </c>
       <c r="B18" t="n">
-        <v>131.686</v>
+        <v>4082.26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4082.26</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +624,10 @@
         <v>1680</v>
       </c>
       <c r="B19" t="n">
-        <v>222.308</v>
+        <v>6891.557</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6891.557</v>
       </c>
     </row>
     <row r="20">
@@ -582,31 +635,42 @@
         <v>1681</v>
       </c>
       <c r="B20" t="n">
-        <v>133.102</v>
+        <v>3981.961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3981.961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1682</v>
       </c>
       <c r="B22" t="n">
-        <v>70.79900000000001</v>
+        <v>2123.964</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2123.964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1690</v>
       </c>
       <c r="B24" t="n">
-        <v>65.13500000000001</v>
+        <v>2019.182</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2019.182</v>
       </c>
     </row>
     <row r="25">
@@ -614,7 +678,10 @@
         <v>1691</v>
       </c>
       <c r="B25" t="n">
-        <v>46.727</v>
+        <v>1448.544</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1448.544</v>
       </c>
     </row>
     <row r="26">
@@ -622,7 +689,10 @@
         <v>1700</v>
       </c>
       <c r="B26" t="n">
-        <v>41.063</v>
+        <v>1272.963</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1272.963</v>
       </c>
     </row>
     <row r="27">
@@ -630,7 +700,10 @@
         <v>1701</v>
       </c>
       <c r="B27" t="n">
-        <v>123.19</v>
+        <v>3818.888</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3818.888</v>
       </c>
     </row>
     <row r="28">
@@ -638,7 +711,10 @@
         <v>1702</v>
       </c>
       <c r="B28" t="n">
-        <v>169.917</v>
+        <v>5267.431</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5267.431</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +722,10 @@
         <v>1710</v>
       </c>
       <c r="B29" t="n">
-        <v>150.093</v>
+        <v>4652.898</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4652.898</v>
       </c>
     </row>
     <row r="30">
@@ -654,7 +733,10 @@
         <v>1711</v>
       </c>
       <c r="B30" t="n">
-        <v>77.879</v>
+        <v>2414.24</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2414.24</v>
       </c>
     </row>
     <row r="31">
@@ -662,7 +744,10 @@
         <v>1720</v>
       </c>
       <c r="B31" t="n">
-        <v>79.295</v>
+        <v>2454.83</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2454.83</v>
       </c>
     </row>
     <row r="32">
@@ -670,23 +755,31 @@
         <v>1721</v>
       </c>
       <c r="B32" t="n">
-        <v>155.757</v>
+        <v>4478.025</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4478.025</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1730</v>
       </c>
       <c r="B35" t="n">
-        <v>178.413</v>
+        <v>5530.803</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5530.803</v>
       </c>
     </row>
     <row r="36">
@@ -694,7 +787,10 @@
         <v>1731</v>
       </c>
       <c r="B36" t="n">
-        <v>35.399</v>
+        <v>1097.381</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1097.381</v>
       </c>
     </row>
     <row r="37">
@@ -702,19 +798,26 @@
         <v>1740</v>
       </c>
       <c r="B37" t="n">
-        <v>66.551</v>
+        <v>1974.343</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1974.343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1741</v>
       </c>
       <c r="B39" t="n">
-        <v>150.093</v>
+        <v>4652.898</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4652.898</v>
       </c>
     </row>
     <row r="40">
@@ -722,7 +825,10 @@
         <v>1750</v>
       </c>
       <c r="B40" t="n">
-        <v>175.581</v>
+        <v>5443.013</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5443.013</v>
       </c>
     </row>
     <row r="41">
@@ -730,19 +836,26 @@
         <v>1751</v>
       </c>
       <c r="B41" t="n">
-        <v>94.87</v>
+        <v>2747.289</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2747.289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1752</v>
       </c>
       <c r="B43" t="n">
-        <v>101.95</v>
+        <v>2739.914</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2739.914</v>
       </c>
     </row>
     <row r="44">
@@ -750,19 +863,26 @@
         <v>1770</v>
       </c>
       <c r="B44" t="n">
-        <v>172.749</v>
+        <v>5355.222</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5355.222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1771</v>
       </c>
       <c r="B46" t="n">
-        <v>185.493</v>
+        <v>5750.279</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5750.279</v>
       </c>
     </row>
     <row r="47">
@@ -770,7 +890,10 @@
         <v>1780</v>
       </c>
       <c r="B47" t="n">
-        <v>147.262</v>
+        <v>4565.107</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4565.107</v>
       </c>
     </row>
     <row r="48">
@@ -778,7 +901,10 @@
         <v>1781</v>
       </c>
       <c r="B48" t="n">
-        <v>143.014</v>
+        <v>4433.422</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4433.422</v>
       </c>
     </row>
     <row r="49">
@@ -786,7 +912,10 @@
         <v>1782</v>
       </c>
       <c r="B49" t="n">
-        <v>113.278</v>
+        <v>3511.621</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3511.621</v>
       </c>
     </row>
     <row r="50">
@@ -794,7 +923,10 @@
         <v>1790</v>
       </c>
       <c r="B50" t="n">
-        <v>97.702</v>
+        <v>3028.773</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3028.773</v>
       </c>
     </row>
     <row r="51">
@@ -802,7 +934,10 @@
         <v>1791</v>
       </c>
       <c r="B51" t="n">
-        <v>134.518</v>
+        <v>4170.05</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4170.05</v>
       </c>
     </row>
     <row r="52">
@@ -810,7 +945,10 @@
         <v>1792</v>
       </c>
       <c r="B52" t="n">
-        <v>82.127</v>
+        <v>2545.925</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2545.925</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +956,10 @@
         <v>1800</v>
       </c>
       <c r="B53" t="n">
-        <v>162.837</v>
+        <v>5047.955</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5047.955</v>
       </c>
     </row>
     <row r="54">
@@ -826,7 +967,10 @@
         <v>1801</v>
       </c>
       <c r="B54" t="n">
-        <v>209.564</v>
+        <v>6496.499</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6496.499</v>
       </c>
     </row>
     <row r="55">
@@ -834,7 +978,10 @@
         <v>1802</v>
       </c>
       <c r="B55" t="n">
-        <v>191.157</v>
+        <v>5925.86</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5925.86</v>
       </c>
     </row>
     <row r="56">
@@ -842,7 +989,10 @@
         <v>1810</v>
       </c>
       <c r="B56" t="n">
-        <v>277.531</v>
+        <v>8603.472</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8603.472</v>
       </c>
     </row>
     <row r="57">
@@ -850,7 +1000,10 @@
         <v>1811</v>
       </c>
       <c r="B57" t="n">
-        <v>107.614</v>
+        <v>3331.556</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3331.556</v>
       </c>
     </row>
     <row r="58">
@@ -858,7 +1011,10 @@
         <v>1812</v>
       </c>
       <c r="B58" t="n">
-        <v>254.876</v>
+        <v>7901.148</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7901.148</v>
       </c>
     </row>
     <row r="59">
@@ -866,7 +1022,10 @@
         <v>1820</v>
       </c>
       <c r="B59" t="n">
-        <v>199.653</v>
+        <v>6189.232</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6189.232</v>
       </c>
     </row>
     <row r="60">
@@ -874,7 +1033,10 @@
         <v>1821</v>
       </c>
       <c r="B60" t="n">
-        <v>176.997</v>
+        <v>5486.908</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5486.908</v>
       </c>
     </row>
     <row r="61">
@@ -882,7 +1044,10 @@
         <v>1822</v>
       </c>
       <c r="B61" t="n">
-        <v>67.967</v>
+        <v>2106.973</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2106.973</v>
       </c>
     </row>
     <row r="62">
@@ -890,7 +1055,10 @@
         <v>1830</v>
       </c>
       <c r="B62" t="n">
-        <v>150.093</v>
+        <v>4352.711</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4352.711</v>
       </c>
     </row>
     <row r="63">
@@ -898,7 +1066,10 @@
         <v>1831</v>
       </c>
       <c r="B63" t="n">
-        <v>145.846</v>
+        <v>4521.212</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4521.212</v>
       </c>
     </row>
     <row r="64">
@@ -906,7 +1077,10 @@
         <v>1832</v>
       </c>
       <c r="B64" t="n">
-        <v>137.35</v>
+        <v>4257.84</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4257.84</v>
       </c>
     </row>
     <row r="65">
@@ -914,7 +1088,10 @@
         <v>1840</v>
       </c>
       <c r="B65" t="n">
-        <v>281.779</v>
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8735.156999999999</v>
       </c>
     </row>
     <row r="66">
@@ -922,7 +1099,10 @@
         <v>1841</v>
       </c>
       <c r="B66" t="n">
-        <v>281.779</v>
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8735.156999999999</v>
       </c>
     </row>
     <row r="67">
@@ -930,7 +1110,10 @@
         <v>1842</v>
       </c>
       <c r="B67" t="n">
-        <v>222.308</v>
+        <v>6891.557</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6891.557</v>
       </c>
     </row>
     <row r="68">
@@ -938,7 +1121,10 @@
         <v>1850</v>
       </c>
       <c r="B68" t="n">
-        <v>181.245</v>
+        <v>5618.594</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5618.594</v>
       </c>
     </row>
     <row r="69">
@@ -946,7 +1132,10 @@
         <v>1851</v>
       </c>
       <c r="B69" t="n">
-        <v>107.614</v>
+        <v>3336.04</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3336.04</v>
       </c>
     </row>
     <row r="70">
@@ -954,7 +1143,10 @@
         <v>1860</v>
       </c>
       <c r="B70" t="n">
-        <v>168.501</v>
+        <v>5223.536</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5223.536</v>
       </c>
     </row>
     <row r="71">
@@ -962,7 +1154,10 @@
         <v>1861</v>
       </c>
       <c r="B71" t="n">
-        <v>178.413</v>
+        <v>5530.803</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5530.803</v>
       </c>
     </row>
     <row r="72">
@@ -970,7 +1165,10 @@
         <v>1863</v>
       </c>
       <c r="B72" t="n">
-        <v>300.187</v>
+        <v>9305.796</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9305.796</v>
       </c>
     </row>
     <row r="73">
@@ -978,7 +1176,10 @@
         <v>1870</v>
       </c>
       <c r="B73" t="n">
-        <v>184.077</v>
+        <v>5706.384</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5706.384</v>
       </c>
     </row>
     <row r="74">
@@ -986,7 +1187,10 @@
         <v>1871</v>
       </c>
       <c r="B74" t="n">
-        <v>117.526</v>
+        <v>3643.306</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3643.306</v>
       </c>
     </row>
     <row r="75">
@@ -994,7 +1198,10 @@
         <v>1872</v>
       </c>
       <c r="B75" t="n">
-        <v>152.925</v>
+        <v>4740.689</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4740.689</v>
       </c>
     </row>
     <row r="76">
@@ -1002,7 +1209,10 @@
         <v>1880</v>
       </c>
       <c r="B76" t="n">
-        <v>218.06</v>
+        <v>6759.87</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6759.87</v>
       </c>
     </row>
     <row r="77">
@@ -1010,7 +1220,10 @@
         <v>1881</v>
       </c>
       <c r="B77" t="n">
-        <v>151.509</v>
+        <v>4696.793</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4696.793</v>
       </c>
     </row>
     <row r="78">
@@ -1018,19 +1231,26 @@
         <v>1882</v>
       </c>
       <c r="B78" t="n">
-        <v>154.341</v>
+        <v>4475.901</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4475.901</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1890</v>
       </c>
       <c r="B80" t="n">
-        <v>271.867</v>
+        <v>8427.889999999999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8427.889999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1038,7 +1258,10 @@
         <v>1891</v>
       </c>
       <c r="B81" t="n">
-        <v>94.87</v>
+        <v>2940.982</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2940.982</v>
       </c>
     </row>
     <row r="82">
@@ -1046,19 +1269,26 @@
         <v>1900</v>
       </c>
       <c r="B82" t="n">
-        <v>249.212</v>
+        <v>6521.043</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6521.043</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1901</v>
       </c>
       <c r="B84" t="n">
-        <v>312.931</v>
+        <v>9700.852000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9700.852000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1068,10 +1298,14 @@
       <c r="B85" t="n">
         <v>77.879</v>
       </c>
+      <c r="C85" t="n">
+        <v>12929.279</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1080,6 +1314,9 @@
       <c r="B87" t="n">
         <v>59.471</v>
       </c>
+      <c r="C87" t="n">
+        <v>13804.748</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1088,10 +1325,14 @@
       <c r="B88" t="n">
         <v>158.589</v>
       </c>
+      <c r="C88" t="n">
+        <v>27323.323</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1100,10 +1341,14 @@
       <c r="B90" t="n">
         <v>145.846</v>
       </c>
+      <c r="C90" t="n">
+        <v>27023.269</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1112,6 +1357,9 @@
       <c r="B92" t="n">
         <v>45.311</v>
       </c>
+      <c r="C92" t="n">
+        <v>9644.115</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1120,6 +1368,9 @@
       <c r="B93" t="n">
         <v>49.559</v>
       </c>
+      <c r="C93" t="n">
+        <v>11123.337</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1128,6 +1379,9 @@
       <c r="B94" t="n">
         <v>49.559</v>
       </c>
+      <c r="C94" t="n">
+        <v>8098.76</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1136,6 +1390,9 @@
       <c r="B95" t="n">
         <v>62.303</v>
       </c>
+      <c r="C95" t="n">
+        <v>11571.23</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1144,6 +1401,9 @@
       <c r="B96" t="n">
         <v>100.534</v>
       </c>
+      <c r="C96" t="n">
+        <v>19024.99</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1152,6 +1412,9 @@
       <c r="B97" t="n">
         <v>56.639</v>
       </c>
+      <c r="C97" t="n">
+        <v>10699.052</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1160,6 +1423,9 @@
       <c r="B98" t="n">
         <v>56.639</v>
       </c>
+      <c r="C98" t="n">
+        <v>10584.157</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1168,6 +1434,9 @@
       <c r="B99" t="n">
         <v>84.958</v>
       </c>
+      <c r="C99" t="n">
+        <v>9734.804</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1176,6 +1445,9 @@
       <c r="B100" t="n">
         <v>49.559</v>
       </c>
+      <c r="C100" t="n">
+        <v>7654.379</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1184,6 +1456,9 @@
       <c r="B101" t="n">
         <v>131.686</v>
       </c>
+      <c r="C101" t="n">
+        <v>30916.191</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1192,6 +1467,9 @@
       <c r="B102" t="n">
         <v>222.308</v>
       </c>
+      <c r="C102" t="n">
+        <v>42164.795</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1200,10 +1478,14 @@
       <c r="B103" t="n">
         <v>133.102</v>
       </c>
+      <c r="C103" t="n">
+        <v>24758.774</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1212,12 +1494,16 @@
       <c r="B105" t="n">
         <v>70.79900000000001</v>
       </c>
+      <c r="C105" t="n">
+        <v>12932.041</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>1198.9</v>
       </c>
       <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1226,6 +1512,9 @@
       <c r="B107" t="n">
         <v>65.13500000000001</v>
       </c>
+      <c r="C107" t="n">
+        <v>12113.442</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1234,6 +1523,9 @@
       <c r="B108" t="n">
         <v>46.727</v>
       </c>
+      <c r="C108" t="n">
+        <v>8703.691999999999</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1242,6 +1534,9 @@
       <c r="B109" t="n">
         <v>41.063</v>
       </c>
+      <c r="C109" t="n">
+        <v>5657.104</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1250,6 +1545,9 @@
       <c r="B110" t="n">
         <v>123.19</v>
       </c>
+      <c r="C110" t="n">
+        <v>31389.079</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1258,6 +1556,9 @@
       <c r="B111" t="n">
         <v>169.917</v>
       </c>
+      <c r="C111" t="n">
+        <v>30881.114</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1266,6 +1567,9 @@
       <c r="B112" t="n">
         <v>150.093</v>
       </c>
+      <c r="C112" t="n">
+        <v>28184.356</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1274,6 +1578,9 @@
       <c r="B113" t="n">
         <v>77.879</v>
       </c>
+      <c r="C113" t="n">
+        <v>14432.446</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1282,6 +1589,9 @@
       <c r="B114" t="n">
         <v>79.295</v>
       </c>
+      <c r="C114" t="n">
+        <v>14626.399</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1290,14 +1600,19 @@
       <c r="B115" t="n">
         <v>155.757</v>
       </c>
+      <c r="C115" t="n">
+        <v>28569.65</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1306,6 +1621,9 @@
       <c r="B118" t="n">
         <v>178.413</v>
       </c>
+      <c r="C118" t="n">
+        <v>32282.889</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1314,6 +1632,9 @@
       <c r="B119" t="n">
         <v>35.399</v>
       </c>
+      <c r="C119" t="n">
+        <v>4618.999</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1322,10 +1643,14 @@
       <c r="B120" t="n">
         <v>66.551</v>
       </c>
+      <c r="C120" t="n">
+        <v>13340.321</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1334,6 +1659,9 @@
       <c r="B122" t="n">
         <v>150.093</v>
       </c>
+      <c r="C122" t="n">
+        <v>28402.068</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1342,6 +1670,9 @@
       <c r="B123" t="n">
         <v>175.581</v>
       </c>
+      <c r="C123" t="n">
+        <v>31502.873</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1350,10 +1681,14 @@
       <c r="B124" t="n">
         <v>94.87</v>
       </c>
+      <c r="C124" t="n">
+        <v>15812.296</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1362,6 +1697,9 @@
       <c r="B126" t="n">
         <v>101.95</v>
       </c>
+      <c r="C126" t="n">
+        <v>18841.684</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1370,12 +1708,16 @@
       <c r="B127" t="n">
         <v>172.749</v>
       </c>
+      <c r="C127" t="n">
+        <v>29268.31</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>1155.9</v>
       </c>
       <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1384,6 +1726,9 @@
       <c r="B129" t="n">
         <v>185.493</v>
       </c>
+      <c r="C129" t="n">
+        <v>31438.134</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1392,6 +1737,9 @@
       <c r="B130" t="n">
         <v>147.262</v>
       </c>
+      <c r="C130" t="n">
+        <v>25450.33</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1400,6 +1748,9 @@
       <c r="B131" t="n">
         <v>143.014</v>
       </c>
+      <c r="C131" t="n">
+        <v>25882.171</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1408,6 +1759,9 @@
       <c r="B132" t="n">
         <v>113.278</v>
       </c>
+      <c r="C132" t="n">
+        <v>20975.584</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1416,6 +1770,9 @@
       <c r="B133" t="n">
         <v>97.702</v>
       </c>
+      <c r="C133" t="n">
+        <v>18315.21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1424,6 +1781,9 @@
       <c r="B134" t="n">
         <v>134.518</v>
       </c>
+      <c r="C134" t="n">
+        <v>25144.382</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1432,6 +1792,9 @@
       <c r="B135" t="n">
         <v>82.127</v>
       </c>
+      <c r="C135" t="n">
+        <v>15297.559</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1440,6 +1803,9 @@
       <c r="B136" t="n">
         <v>162.837</v>
       </c>
+      <c r="C136" t="n">
+        <v>33285.722</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1448,6 +1814,9 @@
       <c r="B137" t="n">
         <v>209.564</v>
       </c>
+      <c r="C137" t="n">
+        <v>36182.006</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1456,6 +1825,9 @@
       <c r="B138" t="n">
         <v>191.157</v>
       </c>
+      <c r="C138" t="n">
+        <v>31490.112</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1464,6 +1836,9 @@
       <c r="B139" t="n">
         <v>277.531</v>
       </c>
+      <c r="C139" t="n">
+        <v>52686.635</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1472,6 +1847,9 @@
       <c r="B140" t="n">
         <v>107.614</v>
       </c>
+      <c r="C140" t="n">
+        <v>20175.541</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1480,6 +1858,9 @@
       <c r="B141" t="n">
         <v>254.876</v>
       </c>
+      <c r="C141" t="n">
+        <v>48451.391</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1488,6 +1869,9 @@
       <c r="B142" t="n">
         <v>199.653</v>
       </c>
+      <c r="C142" t="n">
+        <v>40196.677</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1496,6 +1880,9 @@
       <c r="B143" t="n">
         <v>176.997</v>
       </c>
+      <c r="C143" t="n">
+        <v>30457.798</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1504,6 +1891,9 @@
       <c r="B144" t="n">
         <v>67.967</v>
       </c>
+      <c r="C144" t="n">
+        <v>11710.358</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1512,6 +1902,9 @@
       <c r="B145" t="n">
         <v>150.093</v>
       </c>
+      <c r="C145" t="n">
+        <v>25654.017</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1520,6 +1913,9 @@
       <c r="B146" t="n">
         <v>145.846</v>
       </c>
+      <c r="C146" t="n">
+        <v>25276.795</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1528,6 +1924,9 @@
       <c r="B147" t="n">
         <v>137.35</v>
       </c>
+      <c r="C147" t="n">
+        <v>18473.601</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1536,6 +1935,9 @@
       <c r="B148" t="n">
         <v>281.779</v>
       </c>
+      <c r="C148" t="n">
+        <v>62403.82</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1544,6 +1946,9 @@
       <c r="B149" t="n">
         <v>281.779</v>
       </c>
+      <c r="C149" t="n">
+        <v>55007.876</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1552,6 +1957,9 @@
       <c r="B150" t="n">
         <v>222.308</v>
       </c>
+      <c r="C150" t="n">
+        <v>42420.382</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1560,6 +1968,9 @@
       <c r="B151" t="n">
         <v>181.245</v>
       </c>
+      <c r="C151" t="n">
+        <v>31772.741</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1568,6 +1979,9 @@
       <c r="B152" t="n">
         <v>107.614</v>
       </c>
+      <c r="C152" t="n">
+        <v>20192.198</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1576,6 +1990,9 @@
       <c r="B153" t="n">
         <v>168.501</v>
       </c>
+      <c r="C153" t="n">
+        <v>29216.161</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1584,6 +2001,9 @@
       <c r="B154" t="n">
         <v>178.413</v>
       </c>
+      <c r="C154" t="n">
+        <v>30857.672</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -1592,6 +2012,9 @@
       <c r="B155" t="n">
         <v>300.187</v>
       </c>
+      <c r="C155" t="n">
+        <v>53985.057</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1600,6 +2023,9 @@
       <c r="B156" t="n">
         <v>184.077</v>
       </c>
+      <c r="C156" t="n">
+        <v>32075.54</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1608,6 +2034,9 @@
       <c r="B157" t="n">
         <v>117.526</v>
       </c>
+      <c r="C157" t="n">
+        <v>28084.254</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1616,6 +2045,9 @@
       <c r="B158" t="n">
         <v>152.925</v>
       </c>
+      <c r="C158" t="n">
+        <v>28101.944</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1624,6 +2056,9 @@
       <c r="B159" t="n">
         <v>218.06</v>
       </c>
+      <c r="C159" t="n">
+        <v>46700.894</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1632,6 +2067,9 @@
       <c r="B160" t="n">
         <v>151.509</v>
       </c>
+      <c r="C160" t="n">
+        <v>26880.263</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1640,10 +2078,14 @@
       <c r="B161" t="n">
         <v>154.341</v>
       </c>
+      <c r="C161" t="n">
+        <v>42156.623</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -1652,6 +2094,9 @@
       <c r="B163" t="n">
         <v>271.867</v>
       </c>
+      <c r="C163" t="n">
+        <v>46068.855</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -1660,6 +2105,9 @@
       <c r="B164" t="n">
         <v>94.87</v>
       </c>
+      <c r="C164" t="n">
+        <v>16396.913</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1668,10 +2116,14 @@
       <c r="B165" t="n">
         <v>249.212</v>
       </c>
+      <c r="C165" t="n">
+        <v>43114.12</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -1680,25 +2132,35 @@
       <c r="B167" t="n">
         <v>312.931</v>
       </c>
+      <c r="C167" t="n">
+        <v>55898.76</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
         <v>77.879</v>
       </c>
       <c r="B168" t="n">
-        <v>77.879</v>
+        <v>646</v>
+      </c>
+      <c r="C168" t="n">
+        <v>768185.103</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
         <v>59.471</v>
       </c>
       <c r="B170" t="n">
-        <v>59.471</v>
+        <v>743</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3869026.536</v>
       </c>
     </row>
     <row r="171">
@@ -1706,31 +2168,42 @@
         <v>158.589</v>
       </c>
       <c r="B171" t="n">
-        <v>158.589</v>
+        <v>720</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6253884.144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
         <v>145.846</v>
       </c>
       <c r="B173" t="n">
-        <v>145.846</v>
+        <v>649</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5344449.894</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>45.311</v>
       </c>
       <c r="B175" t="n">
-        <v>45.311</v>
+        <v>744</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3151824.875</v>
       </c>
     </row>
     <row r="176">
@@ -1738,7 +2211,10 @@
         <v>49.559</v>
       </c>
       <c r="B176" t="n">
-        <v>49.559</v>
+        <v>744</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3659218.148</v>
       </c>
     </row>
     <row r="177">
@@ -1746,7 +2222,10 @@
         <v>49.559</v>
       </c>
       <c r="B177" t="n">
-        <v>49.559</v>
+        <v>744</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5614641.484</v>
       </c>
     </row>
     <row r="178">
@@ -1754,7 +2233,10 @@
         <v>62.303</v>
       </c>
       <c r="B178" t="n">
-        <v>62.303</v>
+        <v>744</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3664267.249</v>
       </c>
     </row>
     <row r="179">
@@ -1762,7 +2244,10 @@
         <v>100.534</v>
       </c>
       <c r="B179" t="n">
-        <v>100.534</v>
+        <v>744</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4332087.292</v>
       </c>
     </row>
     <row r="180">
@@ -1770,7 +2255,10 @@
         <v>56.639</v>
       </c>
       <c r="B180" t="n">
-        <v>56.639</v>
+        <v>743</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2014688.642</v>
       </c>
     </row>
     <row r="181">
@@ -1778,7 +2266,10 @@
         <v>56.639</v>
       </c>
       <c r="B181" t="n">
-        <v>56.639</v>
+        <v>743</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3422578.824</v>
       </c>
     </row>
     <row r="182">
@@ -1786,7 +2277,10 @@
         <v>84.958</v>
       </c>
       <c r="B182" t="n">
-        <v>84.958</v>
+        <v>63</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3118618.102</v>
       </c>
     </row>
     <row r="183">
@@ -1794,7 +2288,10 @@
         <v>49.559</v>
       </c>
       <c r="B183" t="n">
-        <v>49.559</v>
+        <v>744</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6381736.632</v>
       </c>
     </row>
     <row r="184">
@@ -1802,7 +2299,10 @@
         <v>131.686</v>
       </c>
       <c r="B184" t="n">
-        <v>131.686</v>
+        <v>744</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6346188.256</v>
       </c>
     </row>
     <row r="185">
@@ -1810,7 +2310,10 @@
         <v>222.308</v>
       </c>
       <c r="B185" t="n">
-        <v>222.308</v>
+        <v>744</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4098621.448</v>
       </c>
     </row>
     <row r="186">
@@ -1818,31 +2321,42 @@
         <v>133.102</v>
       </c>
       <c r="B186" t="n">
-        <v>133.102</v>
+        <v>718</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6896012.648</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
         <v>70.79900000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>70.79900000000001</v>
+        <v>720</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3465695.962</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>65.13500000000001</v>
       </c>
       <c r="B190" t="n">
-        <v>65.13500000000001</v>
+        <v>744</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4278521.703</v>
       </c>
     </row>
     <row r="191">
@@ -1850,7 +2364,10 @@
         <v>46.727</v>
       </c>
       <c r="B191" t="n">
-        <v>46.727</v>
+        <v>744</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3555692.609</v>
       </c>
     </row>
     <row r="192">
@@ -1858,7 +2375,10 @@
         <v>41.063</v>
       </c>
       <c r="B192" t="n">
-        <v>41.063</v>
+        <v>744</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6269999.639</v>
       </c>
     </row>
     <row r="193">
@@ -1866,7 +2386,10 @@
         <v>123.19</v>
       </c>
       <c r="B193" t="n">
-        <v>123.19</v>
+        <v>744</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6994802.784</v>
       </c>
     </row>
     <row r="194">
@@ -1874,7 +2397,10 @@
         <v>169.917</v>
       </c>
       <c r="B194" t="n">
-        <v>169.917</v>
+        <v>744</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6995562.393</v>
       </c>
     </row>
     <row r="195">
@@ -1882,7 +2408,10 @@
         <v>150.093</v>
       </c>
       <c r="B195" t="n">
-        <v>150.093</v>
+        <v>744</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5510208.286</v>
       </c>
     </row>
     <row r="196">
@@ -1890,7 +2419,10 @@
         <v>77.879</v>
       </c>
       <c r="B196" t="n">
-        <v>77.879</v>
+        <v>744</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7609983.596</v>
       </c>
     </row>
     <row r="197">
@@ -1898,7 +2430,10 @@
         <v>79.295</v>
       </c>
       <c r="B197" t="n">
-        <v>79.295</v>
+        <v>743</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6602562.844</v>
       </c>
     </row>
     <row r="198">
@@ -1906,23 +2441,31 @@
         <v>155.757</v>
       </c>
       <c r="B198" t="n">
-        <v>155.757</v>
+        <v>690</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3371929.017</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
         <v>178.413</v>
       </c>
       <c r="B201" t="n">
-        <v>178.413</v>
+        <v>744</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6082931.648</v>
       </c>
     </row>
     <row r="202">
@@ -1930,7 +2473,10 @@
         <v>35.399</v>
       </c>
       <c r="B202" t="n">
-        <v>35.399</v>
+        <v>744</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5199266.976</v>
       </c>
     </row>
     <row r="203">
@@ -1938,19 +2484,26 @@
         <v>66.551</v>
       </c>
       <c r="B203" t="n">
-        <v>66.551</v>
+        <v>712</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3993142.83</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
         <v>150.093</v>
       </c>
       <c r="B205" t="n">
-        <v>150.093</v>
+        <v>744</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3870878.523</v>
       </c>
     </row>
     <row r="206">
@@ -1958,7 +2511,10 @@
         <v>175.581</v>
       </c>
       <c r="B206" t="n">
-        <v>175.581</v>
+        <v>744</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7440891.757</v>
       </c>
     </row>
     <row r="207">
@@ -1966,19 +2522,26 @@
         <v>94.87</v>
       </c>
       <c r="B207" t="n">
-        <v>94.87</v>
+        <v>695</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5666375.922</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>101.95</v>
       </c>
       <c r="B209" t="n">
-        <v>101.95</v>
+        <v>645</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4479499.643</v>
       </c>
     </row>
     <row r="210">
@@ -1986,19 +2549,26 @@
         <v>172.749</v>
       </c>
       <c r="B210" t="n">
-        <v>172.749</v>
+        <v>744</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5023504.883</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
         <v>185.493</v>
       </c>
       <c r="B212" t="n">
-        <v>185.493</v>
+        <v>744</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8784603.725</v>
       </c>
     </row>
     <row r="213">
@@ -2006,7 +2576,10 @@
         <v>147.262</v>
       </c>
       <c r="B213" t="n">
-        <v>147.262</v>
+        <v>744</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6372319.413</v>
       </c>
     </row>
     <row r="214">
@@ -2014,7 +2587,10 @@
         <v>143.014</v>
       </c>
       <c r="B214" t="n">
-        <v>143.014</v>
+        <v>744</v>
+      </c>
+      <c r="C214" t="n">
+        <v>7633303.506</v>
       </c>
     </row>
     <row r="215">
@@ -2022,7 +2598,10 @@
         <v>113.278</v>
       </c>
       <c r="B215" t="n">
-        <v>113.278</v>
+        <v>744</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5482551.766</v>
       </c>
     </row>
     <row r="216">
@@ -2030,7 +2609,10 @@
         <v>97.702</v>
       </c>
       <c r="B216" t="n">
-        <v>97.702</v>
+        <v>744</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5120507.417</v>
       </c>
     </row>
     <row r="217">
@@ -2038,7 +2620,10 @@
         <v>134.518</v>
       </c>
       <c r="B217" t="n">
-        <v>134.518</v>
+        <v>744</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4686253.309</v>
       </c>
     </row>
     <row r="218">
@@ -2046,7 +2631,10 @@
         <v>82.127</v>
       </c>
       <c r="B218" t="n">
-        <v>82.127</v>
+        <v>744</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5622885.428</v>
       </c>
     </row>
     <row r="219">
@@ -2054,7 +2642,10 @@
         <v>162.837</v>
       </c>
       <c r="B219" t="n">
-        <v>162.837</v>
+        <v>744</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6864966.122</v>
       </c>
     </row>
     <row r="220">
@@ -2062,7 +2653,10 @@
         <v>209.564</v>
       </c>
       <c r="B220" t="n">
-        <v>209.564</v>
+        <v>744</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5868075.116</v>
       </c>
     </row>
     <row r="221">
@@ -2070,7 +2664,10 @@
         <v>191.157</v>
       </c>
       <c r="B221" t="n">
-        <v>191.157</v>
+        <v>744</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5836860.464</v>
       </c>
     </row>
     <row r="222">
@@ -2078,7 +2675,10 @@
         <v>277.531</v>
       </c>
       <c r="B222" t="n">
-        <v>277.531</v>
+        <v>744</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8529791.299000001</v>
       </c>
     </row>
     <row r="223">
@@ -2086,7 +2686,10 @@
         <v>107.614</v>
       </c>
       <c r="B223" t="n">
-        <v>107.614</v>
+        <v>743</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8242092.864</v>
       </c>
     </row>
     <row r="224">
@@ -2094,7 +2697,10 @@
         <v>254.876</v>
       </c>
       <c r="B224" t="n">
-        <v>254.876</v>
+        <v>744</v>
+      </c>
+      <c r="C224" t="n">
+        <v>8755641.234999999</v>
       </c>
     </row>
     <row r="225">
@@ -2102,7 +2708,10 @@
         <v>199.653</v>
       </c>
       <c r="B225" t="n">
-        <v>199.653</v>
+        <v>744</v>
+      </c>
+      <c r="C225" t="n">
+        <v>6219746.441</v>
       </c>
     </row>
     <row r="226">
@@ -2110,7 +2719,10 @@
         <v>176.997</v>
       </c>
       <c r="B226" t="n">
-        <v>176.997</v>
+        <v>744</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5603235.038</v>
       </c>
     </row>
     <row r="227">
@@ -2118,7 +2730,10 @@
         <v>67.967</v>
       </c>
       <c r="B227" t="n">
-        <v>67.967</v>
+        <v>744</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5051902.725</v>
       </c>
     </row>
     <row r="228">
@@ -2126,7 +2741,10 @@
         <v>150.093</v>
       </c>
       <c r="B228" t="n">
-        <v>150.093</v>
+        <v>696</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5860509.546</v>
       </c>
     </row>
     <row r="229">
@@ -2134,7 +2752,10 @@
         <v>145.846</v>
       </c>
       <c r="B229" t="n">
-        <v>145.846</v>
+        <v>744</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6566894.176</v>
       </c>
     </row>
     <row r="230">
@@ -2142,7 +2763,10 @@
         <v>137.35</v>
       </c>
       <c r="B230" t="n">
-        <v>137.35</v>
+        <v>744</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4500535.081</v>
       </c>
     </row>
     <row r="231">
@@ -2150,7 +2774,10 @@
         <v>281.779</v>
       </c>
       <c r="B231" t="n">
-        <v>281.779</v>
+        <v>744</v>
+      </c>
+      <c r="C231" t="n">
+        <v>8539096.205</v>
       </c>
     </row>
     <row r="232">
@@ -2158,7 +2785,10 @@
         <v>281.779</v>
       </c>
       <c r="B232" t="n">
-        <v>281.779</v>
+        <v>744</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5620063.693</v>
       </c>
     </row>
     <row r="233">
@@ -2166,7 +2796,10 @@
         <v>222.308</v>
       </c>
       <c r="B233" t="n">
-        <v>222.308</v>
+        <v>744</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5373218.063</v>
       </c>
     </row>
     <row r="234">
@@ -2174,7 +2807,10 @@
         <v>181.245</v>
       </c>
       <c r="B234" t="n">
-        <v>181.245</v>
+        <v>744</v>
+      </c>
+      <c r="C234" t="n">
+        <v>6710889.986</v>
       </c>
     </row>
     <row r="235">
@@ -2182,7 +2818,10 @@
         <v>107.614</v>
       </c>
       <c r="B235" t="n">
-        <v>107.614</v>
+        <v>744</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4220892.509</v>
       </c>
     </row>
     <row r="236">
@@ -2190,7 +2829,10 @@
         <v>168.501</v>
       </c>
       <c r="B236" t="n">
-        <v>168.501</v>
+        <v>744</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4976688.044</v>
       </c>
     </row>
     <row r="237">
@@ -2198,7 +2840,10 @@
         <v>178.413</v>
       </c>
       <c r="B237" t="n">
-        <v>178.413</v>
+        <v>744</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5370817.662</v>
       </c>
     </row>
     <row r="238">
@@ -2206,7 +2851,10 @@
         <v>300.187</v>
       </c>
       <c r="B238" t="n">
-        <v>300.187</v>
+        <v>744</v>
+      </c>
+      <c r="C238" t="n">
+        <v>6755849.994</v>
       </c>
     </row>
     <row r="239">
@@ -2214,7 +2862,10 @@
         <v>184.077</v>
       </c>
       <c r="B239" t="n">
-        <v>184.077</v>
+        <v>744</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5485858.452</v>
       </c>
     </row>
     <row r="240">
@@ -2222,7 +2873,10 @@
         <v>117.526</v>
       </c>
       <c r="B240" t="n">
-        <v>117.526</v>
+        <v>744</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4918606.572</v>
       </c>
     </row>
     <row r="241">
@@ -2230,7 +2884,10 @@
         <v>152.925</v>
       </c>
       <c r="B241" t="n">
-        <v>152.925</v>
+        <v>744</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5186290.987</v>
       </c>
     </row>
     <row r="242">
@@ -2238,7 +2895,10 @@
         <v>218.06</v>
       </c>
       <c r="B242" t="n">
-        <v>218.06</v>
+        <v>744</v>
+      </c>
+      <c r="C242" t="n">
+        <v>6783362.308</v>
       </c>
     </row>
     <row r="243">
@@ -2246,7 +2906,10 @@
         <v>151.509</v>
       </c>
       <c r="B243" t="n">
-        <v>151.509</v>
+        <v>744</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4911612.976</v>
       </c>
     </row>
     <row r="244">
@@ -2254,19 +2917,26 @@
         <v>154.341</v>
       </c>
       <c r="B244" t="n">
-        <v>154.341</v>
+        <v>696</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6254351.355</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>271.867</v>
       </c>
       <c r="B246" t="n">
-        <v>271.867</v>
+        <v>744</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7086909.72</v>
       </c>
     </row>
     <row r="247">
@@ -2274,7 +2944,10 @@
         <v>94.87</v>
       </c>
       <c r="B247" t="n">
-        <v>94.87</v>
+        <v>744</v>
+      </c>
+      <c r="C247" t="n">
+        <v>7605656.386</v>
       </c>
     </row>
     <row r="248">
@@ -2282,19 +2955,5080 @@
         <v>249.212</v>
       </c>
       <c r="B248" t="n">
-        <v>249.212</v>
+        <v>628</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7431053.92</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
         <v>312.931</v>
       </c>
       <c r="B250" t="n">
+        <v>744</v>
+      </c>
+      <c r="C250" t="n">
+        <v>8209581.99</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2096.235</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2096.235</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1841.123</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1841.123</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4757.68</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4757.68</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3943.907</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3943.907</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1404.648</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1404.648</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1931.392</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1931.392</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3116.564</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3116.564</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1753.45</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1753.45</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B265" t="n">
+        <v>223.016</v>
+      </c>
+      <c r="C265" t="n">
+        <v>223.016</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4082.26</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4082.26</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6891.557</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3981.961</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3981.961</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2123.964</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2123.964</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2019.182</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2019.182</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1448.544</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1448.544</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1272.963</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1272.963</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3818.888</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3818.888</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5267.431</v>
+      </c>
+      <c r="C277" t="n">
+        <v>5267.431</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4652.898</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2414.24</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2414.24</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2454.83</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2454.83</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4478.025</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4478.025</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="C284" t="n">
+        <v>5530.803</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1731</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1097.381</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1097.381</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1974.343</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1974.343</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="C288" t="n">
+        <v>4652.898</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5443.013</v>
+      </c>
+      <c r="C289" t="n">
+        <v>5443.013</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2747.289</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2747.289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1752</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2739.914</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2739.914</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5355.222</v>
+      </c>
+      <c r="C293" t="n">
+        <v>5355.222</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5750.279</v>
+      </c>
+      <c r="C295" t="n">
+        <v>5750.279</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4565.107</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4565.107</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4433.422</v>
+      </c>
+      <c r="C297" t="n">
+        <v>4433.422</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3511.621</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3511.621</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3028.773</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3028.773</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1791</v>
+      </c>
+      <c r="B300" t="n">
+        <v>4170.05</v>
+      </c>
+      <c r="C300" t="n">
+        <v>4170.05</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1792</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2545.925</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2545.925</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B302" t="n">
+        <v>5047.955</v>
+      </c>
+      <c r="C302" t="n">
+        <v>5047.955</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6496.499</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6496.499</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5925.86</v>
+      </c>
+      <c r="C304" t="n">
+        <v>5925.86</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B305" t="n">
+        <v>8603.472</v>
+      </c>
+      <c r="C305" t="n">
+        <v>8603.472</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3331.556</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3331.556</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B307" t="n">
+        <v>7901.148</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7901.148</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B308" t="n">
+        <v>6189.232</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6189.232</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5486.908</v>
+      </c>
+      <c r="C309" t="n">
+        <v>5486.908</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2106.973</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2106.973</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4352.711</v>
+      </c>
+      <c r="C311" t="n">
+        <v>4352.711</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4521.212</v>
+      </c>
+      <c r="C312" t="n">
+        <v>4521.212</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B313" t="n">
+        <v>4257.84</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4257.84</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B314" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C314" t="n">
+        <v>8735.156999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B315" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C315" t="n">
+        <v>8735.156999999999</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B316" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="C316" t="n">
+        <v>6891.557</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5618.594</v>
+      </c>
+      <c r="C317" t="n">
+        <v>5618.594</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3336.04</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3336.04</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5223.536</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5223.536</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="C320" t="n">
+        <v>5530.803</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B321" t="n">
+        <v>9305.796</v>
+      </c>
+      <c r="C321" t="n">
+        <v>9305.796</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5706.384</v>
+      </c>
+      <c r="C322" t="n">
+        <v>5706.384</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3643.306</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3643.306</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4740.689</v>
+      </c>
+      <c r="C324" t="n">
+        <v>4740.689</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B325" t="n">
+        <v>6759.87</v>
+      </c>
+      <c r="C325" t="n">
+        <v>6759.87</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B326" t="n">
+        <v>4696.793</v>
+      </c>
+      <c r="C326" t="n">
+        <v>4696.793</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4475.901</v>
+      </c>
+      <c r="C327" t="n">
+        <v>4475.901</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B329" t="n">
+        <v>8427.889999999999</v>
+      </c>
+      <c r="C329" t="n">
+        <v>8427.889999999999</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2940.982</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2940.982</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6521.043</v>
+      </c>
+      <c r="C331" t="n">
+        <v>6521.043</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B333" t="n">
+        <v>9700.852000000001</v>
+      </c>
+      <c r="C333" t="n">
+        <v>9700.852000000001</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1254.7</v>
+      </c>
+      <c r="B334" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="C334" t="n">
+        <v>12929.279</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1166.85</v>
+      </c>
+      <c r="B336" t="n">
+        <v>59.471</v>
+      </c>
+      <c r="C336" t="n">
+        <v>13804.748</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1193.92</v>
+      </c>
+      <c r="B337" t="n">
+        <v>158.589</v>
+      </c>
+      <c r="C337" t="n">
+        <v>27323.323</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1218.9</v>
+      </c>
+      <c r="B339" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="C339" t="n">
+        <v>27023.269</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B341" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="C341" t="n">
+        <v>9644.115</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1174.4</v>
+      </c>
+      <c r="B342" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C342" t="n">
+        <v>11123.337</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1185.4</v>
+      </c>
+      <c r="B343" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8098.76</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="B344" t="n">
+        <v>62.303</v>
+      </c>
+      <c r="C344" t="n">
+        <v>11571.23</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1185.77</v>
+      </c>
+      <c r="B345" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="C345" t="n">
+        <v>19024.99</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1161.72</v>
+      </c>
+      <c r="B346" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="C346" t="n">
+        <v>10699.052</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B347" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="C347" t="n">
+        <v>10584.157</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1175.5</v>
+      </c>
+      <c r="B348" t="n">
+        <v>84.958</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9734.804</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1173.5</v>
+      </c>
+      <c r="B349" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7654.379</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1213.2</v>
+      </c>
+      <c r="B350" t="n">
+        <v>131.686</v>
+      </c>
+      <c r="C350" t="n">
+        <v>30916.191</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1132.3</v>
+      </c>
+      <c r="B351" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="C351" t="n">
+        <v>42164.795</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1218.2</v>
+      </c>
+      <c r="B352" t="n">
+        <v>133.102</v>
+      </c>
+      <c r="C352" t="n">
+        <v>24758.774</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1018.36</v>
+      </c>
+      <c r="B354" t="n">
+        <v>70.79900000000001</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12932.041</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1198.9</v>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1159.77</v>
+      </c>
+      <c r="B356" t="n">
+        <v>65.13500000000001</v>
+      </c>
+      <c r="C356" t="n">
+        <v>12113.442</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1191.2</v>
+      </c>
+      <c r="B357" t="n">
+        <v>46.727</v>
+      </c>
+      <c r="C357" t="n">
+        <v>8703.691999999999</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1180.3</v>
+      </c>
+      <c r="B358" t="n">
+        <v>41.063</v>
+      </c>
+      <c r="C358" t="n">
+        <v>5657.104</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1214.4</v>
+      </c>
+      <c r="B359" t="n">
+        <v>123.19</v>
+      </c>
+      <c r="C359" t="n">
+        <v>31389.079</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1135.6</v>
+      </c>
+      <c r="B360" t="n">
+        <v>169.917</v>
+      </c>
+      <c r="C360" t="n">
+        <v>30881.114</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1152.3</v>
+      </c>
+      <c r="B361" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C361" t="n">
+        <v>28184.356</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1211.95</v>
+      </c>
+      <c r="B362" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="C362" t="n">
+        <v>14432.446</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="B363" t="n">
+        <v>79.295</v>
+      </c>
+      <c r="C363" t="n">
+        <v>14626.399</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1163.1</v>
+      </c>
+      <c r="B364" t="n">
+        <v>155.757</v>
+      </c>
+      <c r="C364" t="n">
+        <v>28569.65</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1172.9</v>
+      </c>
+      <c r="B367" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="C367" t="n">
+        <v>32282.889</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1175.4</v>
+      </c>
+      <c r="B368" t="n">
+        <v>35.399</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4618.999</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1175.7</v>
+      </c>
+      <c r="B369" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="C369" t="n">
+        <v>13340.321</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr"/>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="B371" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C371" t="n">
+        <v>28402.068</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="B372" t="n">
+        <v>175.581</v>
+      </c>
+      <c r="C372" t="n">
+        <v>31502.873</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1173.4</v>
+      </c>
+      <c r="B373" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="C373" t="n">
+        <v>15812.296</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1184.57</v>
+      </c>
+      <c r="B375" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="C375" t="n">
+        <v>18841.684</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="B376" t="n">
+        <v>172.749</v>
+      </c>
+      <c r="C376" t="n">
+        <v>29268.31</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1155.9</v>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1159.7</v>
+      </c>
+      <c r="B378" t="n">
+        <v>185.493</v>
+      </c>
+      <c r="C378" t="n">
+        <v>31438.134</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1184.7</v>
+      </c>
+      <c r="B379" t="n">
+        <v>147.262</v>
+      </c>
+      <c r="C379" t="n">
+        <v>25450.33</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1188.9</v>
+      </c>
+      <c r="B380" t="n">
+        <v>143.014</v>
+      </c>
+      <c r="C380" t="n">
+        <v>25882.171</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1181.2</v>
+      </c>
+      <c r="B381" t="n">
+        <v>113.278</v>
+      </c>
+      <c r="C381" t="n">
+        <v>20975.584</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1143.8</v>
+      </c>
+      <c r="B382" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="C382" t="n">
+        <v>18315.21</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1224.3</v>
+      </c>
+      <c r="B383" t="n">
+        <v>134.518</v>
+      </c>
+      <c r="C383" t="n">
+        <v>25144.382</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="B384" t="n">
+        <v>82.127</v>
+      </c>
+      <c r="C384" t="n">
+        <v>15297.559</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1203.4</v>
+      </c>
+      <c r="B385" t="n">
+        <v>162.837</v>
+      </c>
+      <c r="C385" t="n">
+        <v>33285.722</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B386" t="n">
+        <v>209.564</v>
+      </c>
+      <c r="C386" t="n">
+        <v>36182.006</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1178.8</v>
+      </c>
+      <c r="B387" t="n">
+        <v>191.157</v>
+      </c>
+      <c r="C387" t="n">
+        <v>31490.112</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="B388" t="n">
+        <v>277.531</v>
+      </c>
+      <c r="C388" t="n">
+        <v>52686.635</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1214.7</v>
+      </c>
+      <c r="B389" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="C389" t="n">
+        <v>20175.541</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1154.2</v>
+      </c>
+      <c r="B390" t="n">
+        <v>254.876</v>
+      </c>
+      <c r="C390" t="n">
+        <v>48451.391</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="B391" t="n">
+        <v>199.653</v>
+      </c>
+      <c r="C391" t="n">
+        <v>40196.677</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1164.7</v>
+      </c>
+      <c r="B392" t="n">
+        <v>176.997</v>
+      </c>
+      <c r="C392" t="n">
+        <v>30457.798</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1202.19</v>
+      </c>
+      <c r="B393" t="n">
+        <v>67.967</v>
+      </c>
+      <c r="C393" t="n">
+        <v>11710.358</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1181.3</v>
+      </c>
+      <c r="B394" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C394" t="n">
+        <v>25654.017</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1166.2</v>
+      </c>
+      <c r="B395" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="C395" t="n">
+        <v>25276.795</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1175.27</v>
+      </c>
+      <c r="B396" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="C396" t="n">
+        <v>18473.601</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1210.3</v>
+      </c>
+      <c r="B397" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="C397" t="n">
+        <v>62403.82</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1174.1</v>
+      </c>
+      <c r="B398" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="C398" t="n">
+        <v>55007.876</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1222.7</v>
+      </c>
+      <c r="B399" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="C399" t="n">
+        <v>42420.382</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1160.4</v>
+      </c>
+      <c r="B400" t="n">
+        <v>181.245</v>
+      </c>
+      <c r="C400" t="n">
+        <v>31772.741</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1146.8</v>
+      </c>
+      <c r="B401" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="C401" t="n">
+        <v>20192.198</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="B402" t="n">
+        <v>168.501</v>
+      </c>
+      <c r="C402" t="n">
+        <v>29216.161</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1209.5</v>
+      </c>
+      <c r="B403" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="C403" t="n">
+        <v>30857.672</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1184.5</v>
+      </c>
+      <c r="B404" t="n">
+        <v>300.187</v>
+      </c>
+      <c r="C404" t="n">
+        <v>53985.057</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1182.5</v>
+      </c>
+      <c r="B405" t="n">
+        <v>184.077</v>
+      </c>
+      <c r="C405" t="n">
+        <v>32075.54</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B406" t="n">
+        <v>117.526</v>
+      </c>
+      <c r="C406" t="n">
+        <v>28084.254</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1216.5</v>
+      </c>
+      <c r="B407" t="n">
+        <v>152.925</v>
+      </c>
+      <c r="C407" t="n">
+        <v>28101.944</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B408" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="C408" t="n">
+        <v>46700.894</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1141.9</v>
+      </c>
+      <c r="B409" t="n">
+        <v>151.509</v>
+      </c>
+      <c r="C409" t="n">
+        <v>26880.263</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B410" t="n">
+        <v>154.341</v>
+      </c>
+      <c r="C410" t="n">
+        <v>42156.623</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1154.6</v>
+      </c>
+      <c r="B412" t="n">
+        <v>271.867</v>
+      </c>
+      <c r="C412" t="n">
+        <v>46068.855</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1172.04</v>
+      </c>
+      <c r="B413" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="C413" t="n">
+        <v>16396.913</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1203.9</v>
+      </c>
+      <c r="B414" t="n">
+        <v>249.212</v>
+      </c>
+      <c r="C414" t="n">
+        <v>43114.12</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1160.7</v>
+      </c>
+      <c r="B416" t="n">
         <v>312.931</v>
+      </c>
+      <c r="C416" t="n">
+        <v>55898.76</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="B417" t="n">
+        <v>646</v>
+      </c>
+      <c r="C417" t="n">
+        <v>768185.103</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>59.471</v>
+      </c>
+      <c r="B419" t="n">
+        <v>743</v>
+      </c>
+      <c r="C419" t="n">
+        <v>3869026.536</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>158.589</v>
+      </c>
+      <c r="B420" t="n">
+        <v>720</v>
+      </c>
+      <c r="C420" t="n">
+        <v>6253884.144</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="B422" t="n">
+        <v>649</v>
+      </c>
+      <c r="C422" t="n">
+        <v>5344449.894</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="B424" t="n">
+        <v>744</v>
+      </c>
+      <c r="C424" t="n">
+        <v>3151824.875</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B425" t="n">
+        <v>744</v>
+      </c>
+      <c r="C425" t="n">
+        <v>3659218.148</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B426" t="n">
+        <v>744</v>
+      </c>
+      <c r="C426" t="n">
+        <v>5614641.484</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>62.303</v>
+      </c>
+      <c r="B427" t="n">
+        <v>744</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3664267.249</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="B428" t="n">
+        <v>744</v>
+      </c>
+      <c r="C428" t="n">
+        <v>4332087.292</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="B429" t="n">
+        <v>743</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2014688.642</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="B430" t="n">
+        <v>743</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3422578.824</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>84.958</v>
+      </c>
+      <c r="B431" t="n">
+        <v>63</v>
+      </c>
+      <c r="C431" t="n">
+        <v>3118618.102</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B432" t="n">
+        <v>744</v>
+      </c>
+      <c r="C432" t="n">
+        <v>6381736.632</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>131.686</v>
+      </c>
+      <c r="B433" t="n">
+        <v>744</v>
+      </c>
+      <c r="C433" t="n">
+        <v>6346188.256</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="B434" t="n">
+        <v>744</v>
+      </c>
+      <c r="C434" t="n">
+        <v>4098621.448</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>133.102</v>
+      </c>
+      <c r="B435" t="n">
+        <v>718</v>
+      </c>
+      <c r="C435" t="n">
+        <v>6896012.648</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>70.79900000000001</v>
+      </c>
+      <c r="B437" t="n">
+        <v>720</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3465695.962</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>65.13500000000001</v>
+      </c>
+      <c r="B439" t="n">
+        <v>744</v>
+      </c>
+      <c r="C439" t="n">
+        <v>4278521.703</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>46.727</v>
+      </c>
+      <c r="B440" t="n">
+        <v>744</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3555692.609</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>41.063</v>
+      </c>
+      <c r="B441" t="n">
+        <v>744</v>
+      </c>
+      <c r="C441" t="n">
+        <v>6269999.639</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>123.19</v>
+      </c>
+      <c r="B442" t="n">
+        <v>744</v>
+      </c>
+      <c r="C442" t="n">
+        <v>6994802.784</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>169.917</v>
+      </c>
+      <c r="B443" t="n">
+        <v>744</v>
+      </c>
+      <c r="C443" t="n">
+        <v>6995562.393</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B444" t="n">
+        <v>744</v>
+      </c>
+      <c r="C444" t="n">
+        <v>5510208.286</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="B445" t="n">
+        <v>744</v>
+      </c>
+      <c r="C445" t="n">
+        <v>7609983.596</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>79.295</v>
+      </c>
+      <c r="B446" t="n">
+        <v>743</v>
+      </c>
+      <c r="C446" t="n">
+        <v>6602562.844</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>155.757</v>
+      </c>
+      <c r="B447" t="n">
+        <v>690</v>
+      </c>
+      <c r="C447" t="n">
+        <v>3371929.017</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="B450" t="n">
+        <v>744</v>
+      </c>
+      <c r="C450" t="n">
+        <v>6082931.648</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>35.399</v>
+      </c>
+      <c r="B451" t="n">
+        <v>744</v>
+      </c>
+      <c r="C451" t="n">
+        <v>5199266.976</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="B452" t="n">
+        <v>712</v>
+      </c>
+      <c r="C452" t="n">
+        <v>3993142.83</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B454" t="n">
+        <v>744</v>
+      </c>
+      <c r="C454" t="n">
+        <v>3870878.523</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>175.581</v>
+      </c>
+      <c r="B455" t="n">
+        <v>744</v>
+      </c>
+      <c r="C455" t="n">
+        <v>7440891.757</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="B456" t="n">
+        <v>695</v>
+      </c>
+      <c r="C456" t="n">
+        <v>5666375.922</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="B458" t="n">
+        <v>645</v>
+      </c>
+      <c r="C458" t="n">
+        <v>4479499.643</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>172.749</v>
+      </c>
+      <c r="B459" t="n">
+        <v>744</v>
+      </c>
+      <c r="C459" t="n">
+        <v>5023504.883</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>185.493</v>
+      </c>
+      <c r="B461" t="n">
+        <v>744</v>
+      </c>
+      <c r="C461" t="n">
+        <v>8784603.725</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>147.262</v>
+      </c>
+      <c r="B462" t="n">
+        <v>744</v>
+      </c>
+      <c r="C462" t="n">
+        <v>6372319.413</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>143.014</v>
+      </c>
+      <c r="B463" t="n">
+        <v>744</v>
+      </c>
+      <c r="C463" t="n">
+        <v>7633303.506</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>113.278</v>
+      </c>
+      <c r="B464" t="n">
+        <v>744</v>
+      </c>
+      <c r="C464" t="n">
+        <v>5482551.766</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="B465" t="n">
+        <v>744</v>
+      </c>
+      <c r="C465" t="n">
+        <v>5120507.417</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>134.518</v>
+      </c>
+      <c r="B466" t="n">
+        <v>744</v>
+      </c>
+      <c r="C466" t="n">
+        <v>4686253.309</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>82.127</v>
+      </c>
+      <c r="B467" t="n">
+        <v>744</v>
+      </c>
+      <c r="C467" t="n">
+        <v>5622885.428</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>162.837</v>
+      </c>
+      <c r="B468" t="n">
+        <v>744</v>
+      </c>
+      <c r="C468" t="n">
+        <v>6864966.122</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>209.564</v>
+      </c>
+      <c r="B469" t="n">
+        <v>744</v>
+      </c>
+      <c r="C469" t="n">
+        <v>5868075.116</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>191.157</v>
+      </c>
+      <c r="B470" t="n">
+        <v>744</v>
+      </c>
+      <c r="C470" t="n">
+        <v>5836860.464</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>277.531</v>
+      </c>
+      <c r="B471" t="n">
+        <v>744</v>
+      </c>
+      <c r="C471" t="n">
+        <v>8529791.299000001</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="B472" t="n">
+        <v>743</v>
+      </c>
+      <c r="C472" t="n">
+        <v>8242092.864</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>254.876</v>
+      </c>
+      <c r="B473" t="n">
+        <v>744</v>
+      </c>
+      <c r="C473" t="n">
+        <v>8755641.234999999</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>199.653</v>
+      </c>
+      <c r="B474" t="n">
+        <v>744</v>
+      </c>
+      <c r="C474" t="n">
+        <v>6219746.441</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>176.997</v>
+      </c>
+      <c r="B475" t="n">
+        <v>744</v>
+      </c>
+      <c r="C475" t="n">
+        <v>5603235.038</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>67.967</v>
+      </c>
+      <c r="B476" t="n">
+        <v>744</v>
+      </c>
+      <c r="C476" t="n">
+        <v>5051902.725</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B477" t="n">
+        <v>696</v>
+      </c>
+      <c r="C477" t="n">
+        <v>5860509.546</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="B478" t="n">
+        <v>744</v>
+      </c>
+      <c r="C478" t="n">
+        <v>6566894.176</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="B479" t="n">
+        <v>744</v>
+      </c>
+      <c r="C479" t="n">
+        <v>4500535.081</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="B480" t="n">
+        <v>744</v>
+      </c>
+      <c r="C480" t="n">
+        <v>8539096.205</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="B481" t="n">
+        <v>744</v>
+      </c>
+      <c r="C481" t="n">
+        <v>5620063.693</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="B482" t="n">
+        <v>744</v>
+      </c>
+      <c r="C482" t="n">
+        <v>5373218.063</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>181.245</v>
+      </c>
+      <c r="B483" t="n">
+        <v>744</v>
+      </c>
+      <c r="C483" t="n">
+        <v>6710889.986</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="B484" t="n">
+        <v>744</v>
+      </c>
+      <c r="C484" t="n">
+        <v>4220892.509</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>168.501</v>
+      </c>
+      <c r="B485" t="n">
+        <v>744</v>
+      </c>
+      <c r="C485" t="n">
+        <v>4976688.044</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="B486" t="n">
+        <v>744</v>
+      </c>
+      <c r="C486" t="n">
+        <v>5370817.662</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>300.187</v>
+      </c>
+      <c r="B487" t="n">
+        <v>744</v>
+      </c>
+      <c r="C487" t="n">
+        <v>6755849.994</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>184.077</v>
+      </c>
+      <c r="B488" t="n">
+        <v>744</v>
+      </c>
+      <c r="C488" t="n">
+        <v>5485858.452</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>117.526</v>
+      </c>
+      <c r="B489" t="n">
+        <v>744</v>
+      </c>
+      <c r="C489" t="n">
+        <v>4918606.572</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>152.925</v>
+      </c>
+      <c r="B490" t="n">
+        <v>744</v>
+      </c>
+      <c r="C490" t="n">
+        <v>5186290.987</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="B491" t="n">
+        <v>744</v>
+      </c>
+      <c r="C491" t="n">
+        <v>6783362.308</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>151.509</v>
+      </c>
+      <c r="B492" t="n">
+        <v>744</v>
+      </c>
+      <c r="C492" t="n">
+        <v>4911612.976</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>154.341</v>
+      </c>
+      <c r="B493" t="n">
+        <v>696</v>
+      </c>
+      <c r="C493" t="n">
+        <v>6254351.355</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>271.867</v>
+      </c>
+      <c r="B495" t="n">
+        <v>744</v>
+      </c>
+      <c r="C495" t="n">
+        <v>7086909.72</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="B496" t="n">
+        <v>744</v>
+      </c>
+      <c r="C496" t="n">
+        <v>7605656.386</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>249.212</v>
+      </c>
+      <c r="B497" t="n">
+        <v>628</v>
+      </c>
+      <c r="C497" t="n">
+        <v>7431053.92</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>312.931</v>
+      </c>
+      <c r="B499" t="n">
+        <v>744</v>
+      </c>
+      <c r="C499" t="n">
+        <v>8209581.99</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B500" t="n">
+        <v>2096.235</v>
+      </c>
+      <c r="C500" t="n">
+        <v>2096.235</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1841.123</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1841.123</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B503" t="n">
+        <v>4757.68</v>
+      </c>
+      <c r="C503" t="n">
+        <v>4757.68</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3943.907</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3943.907</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1404.648</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1404.648</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1931.392</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1931.392</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3116.564</v>
+      </c>
+      <c r="C511" t="n">
+        <v>3116.564</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1753.45</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1753.45</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B514" t="n">
+        <v>223.016</v>
+      </c>
+      <c r="C514" t="n">
+        <v>223.016</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1536.334</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B516" t="n">
+        <v>4082.26</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4082.26</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B517" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="C517" t="n">
+        <v>6891.557</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3981.961</v>
+      </c>
+      <c r="C518" t="n">
+        <v>3981.961</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B520" t="n">
+        <v>2123.964</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2123.964</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B522" t="n">
+        <v>2019.182</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2019.182</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1448.544</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1448.544</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1272.963</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1272.963</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3818.888</v>
+      </c>
+      <c r="C525" t="n">
+        <v>3818.888</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B526" t="n">
+        <v>5267.431</v>
+      </c>
+      <c r="C526" t="n">
+        <v>5267.431</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B527" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4652.898</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B528" t="n">
+        <v>2414.24</v>
+      </c>
+      <c r="C528" t="n">
+        <v>2414.24</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B529" t="n">
+        <v>2454.83</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2454.83</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B530" t="n">
+        <v>4478.025</v>
+      </c>
+      <c r="C530" t="n">
+        <v>4478.025</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr"/>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B533" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="C533" t="n">
+        <v>5530.803</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>1731</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1097.381</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1097.381</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1974.343</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1974.343</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B537" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="C537" t="n">
+        <v>4652.898</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B538" t="n">
+        <v>5443.013</v>
+      </c>
+      <c r="C538" t="n">
+        <v>5443.013</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B539" t="n">
+        <v>2747.289</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2747.289</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1752</v>
+      </c>
+      <c r="B541" t="n">
+        <v>2739.914</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2739.914</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B542" t="n">
+        <v>5355.222</v>
+      </c>
+      <c r="C542" t="n">
+        <v>5355.222</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B544" t="n">
+        <v>5750.279</v>
+      </c>
+      <c r="C544" t="n">
+        <v>5750.279</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B545" t="n">
+        <v>4565.107</v>
+      </c>
+      <c r="C545" t="n">
+        <v>4565.107</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B546" t="n">
+        <v>4433.422</v>
+      </c>
+      <c r="C546" t="n">
+        <v>4433.422</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3511.621</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3511.621</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3028.773</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3028.773</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1791</v>
+      </c>
+      <c r="B549" t="n">
+        <v>4170.05</v>
+      </c>
+      <c r="C549" t="n">
+        <v>4170.05</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1792</v>
+      </c>
+      <c r="B550" t="n">
+        <v>2545.925</v>
+      </c>
+      <c r="C550" t="n">
+        <v>2545.925</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B551" t="n">
+        <v>5047.955</v>
+      </c>
+      <c r="C551" t="n">
+        <v>5047.955</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B552" t="n">
+        <v>6496.499</v>
+      </c>
+      <c r="C552" t="n">
+        <v>6496.499</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B553" t="n">
+        <v>5925.86</v>
+      </c>
+      <c r="C553" t="n">
+        <v>5925.86</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B554" t="n">
+        <v>8603.472</v>
+      </c>
+      <c r="C554" t="n">
+        <v>8603.472</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3331.556</v>
+      </c>
+      <c r="C555" t="n">
+        <v>3331.556</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B556" t="n">
+        <v>7901.148</v>
+      </c>
+      <c r="C556" t="n">
+        <v>7901.148</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B557" t="n">
+        <v>6189.232</v>
+      </c>
+      <c r="C557" t="n">
+        <v>6189.232</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B558" t="n">
+        <v>5486.908</v>
+      </c>
+      <c r="C558" t="n">
+        <v>5486.908</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B559" t="n">
+        <v>2106.973</v>
+      </c>
+      <c r="C559" t="n">
+        <v>2106.973</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B560" t="n">
+        <v>4352.711</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4352.711</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B561" t="n">
+        <v>4521.212</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4521.212</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B562" t="n">
+        <v>4257.84</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4257.84</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B563" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C563" t="n">
+        <v>8735.156999999999</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B564" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="C564" t="n">
+        <v>8735.156999999999</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B565" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="C565" t="n">
+        <v>6891.557</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B566" t="n">
+        <v>5618.594</v>
+      </c>
+      <c r="C566" t="n">
+        <v>5618.594</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B567" t="n">
+        <v>3336.04</v>
+      </c>
+      <c r="C567" t="n">
+        <v>3336.04</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B568" t="n">
+        <v>5223.536</v>
+      </c>
+      <c r="C568" t="n">
+        <v>5223.536</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B569" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="C569" t="n">
+        <v>5530.803</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B570" t="n">
+        <v>9305.796</v>
+      </c>
+      <c r="C570" t="n">
+        <v>9305.796</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B571" t="n">
+        <v>5706.384</v>
+      </c>
+      <c r="C571" t="n">
+        <v>5706.384</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B572" t="n">
+        <v>3643.306</v>
+      </c>
+      <c r="C572" t="n">
+        <v>3643.306</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B573" t="n">
+        <v>4740.689</v>
+      </c>
+      <c r="C573" t="n">
+        <v>4740.689</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B574" t="n">
+        <v>6759.87</v>
+      </c>
+      <c r="C574" t="n">
+        <v>6759.87</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B575" t="n">
+        <v>4696.793</v>
+      </c>
+      <c r="C575" t="n">
+        <v>4696.793</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B576" t="n">
+        <v>4475.901</v>
+      </c>
+      <c r="C576" t="n">
+        <v>4475.901</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B578" t="n">
+        <v>8427.889999999999</v>
+      </c>
+      <c r="C578" t="n">
+        <v>8427.889999999999</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B579" t="n">
+        <v>2940.982</v>
+      </c>
+      <c r="C579" t="n">
+        <v>2940.982</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B580" t="n">
+        <v>6521.043</v>
+      </c>
+      <c r="C580" t="n">
+        <v>6521.043</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B582" t="n">
+        <v>9700.852000000001</v>
+      </c>
+      <c r="C582" t="n">
+        <v>9700.852000000001</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>1254.7</v>
+      </c>
+      <c r="B583" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="C583" t="n">
+        <v>12929.279</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1166.85</v>
+      </c>
+      <c r="B585" t="n">
+        <v>59.471</v>
+      </c>
+      <c r="C585" t="n">
+        <v>13804.748</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>1193.92</v>
+      </c>
+      <c r="B586" t="n">
+        <v>158.589</v>
+      </c>
+      <c r="C586" t="n">
+        <v>27323.323</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>1218.9</v>
+      </c>
+      <c r="B588" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="C588" t="n">
+        <v>27023.269</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B590" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="C590" t="n">
+        <v>9644.115</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1174.4</v>
+      </c>
+      <c r="B591" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C591" t="n">
+        <v>11123.337</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1185.4</v>
+      </c>
+      <c r="B592" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C592" t="n">
+        <v>8098.76</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="B593" t="n">
+        <v>62.303</v>
+      </c>
+      <c r="C593" t="n">
+        <v>11571.23</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>1185.77</v>
+      </c>
+      <c r="B594" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="C594" t="n">
+        <v>19024.99</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>1161.72</v>
+      </c>
+      <c r="B595" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="C595" t="n">
+        <v>10699.052</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B596" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="C596" t="n">
+        <v>10584.157</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>1175.5</v>
+      </c>
+      <c r="B597" t="n">
+        <v>84.958</v>
+      </c>
+      <c r="C597" t="n">
+        <v>9734.804</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>1173.5</v>
+      </c>
+      <c r="B598" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="C598" t="n">
+        <v>7654.379</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1213.2</v>
+      </c>
+      <c r="B599" t="n">
+        <v>131.686</v>
+      </c>
+      <c r="C599" t="n">
+        <v>30916.191</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>1132.3</v>
+      </c>
+      <c r="B600" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="C600" t="n">
+        <v>42164.795</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1218.2</v>
+      </c>
+      <c r="B601" t="n">
+        <v>133.102</v>
+      </c>
+      <c r="C601" t="n">
+        <v>24758.774</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>1018.36</v>
+      </c>
+      <c r="B603" t="n">
+        <v>70.79900000000001</v>
+      </c>
+      <c r="C603" t="n">
+        <v>12932.041</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>1198.9</v>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1159.77</v>
+      </c>
+      <c r="B605" t="n">
+        <v>65.13500000000001</v>
+      </c>
+      <c r="C605" t="n">
+        <v>12113.442</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1191.2</v>
+      </c>
+      <c r="B606" t="n">
+        <v>46.727</v>
+      </c>
+      <c r="C606" t="n">
+        <v>8703.691999999999</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>1180.3</v>
+      </c>
+      <c r="B607" t="n">
+        <v>41.063</v>
+      </c>
+      <c r="C607" t="n">
+        <v>5657.104</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>1214.4</v>
+      </c>
+      <c r="B608" t="n">
+        <v>123.19</v>
+      </c>
+      <c r="C608" t="n">
+        <v>31389.079</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>1135.6</v>
+      </c>
+      <c r="B609" t="n">
+        <v>169.917</v>
+      </c>
+      <c r="C609" t="n">
+        <v>30881.114</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1152.3</v>
+      </c>
+      <c r="B610" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C610" t="n">
+        <v>28184.356</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1211.95</v>
+      </c>
+      <c r="B611" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="C611" t="n">
+        <v>14432.446</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="B612" t="n">
+        <v>79.295</v>
+      </c>
+      <c r="C612" t="n">
+        <v>14626.399</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>1163.1</v>
+      </c>
+      <c r="B613" t="n">
+        <v>155.757</v>
+      </c>
+      <c r="C613" t="n">
+        <v>28569.65</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>1172.9</v>
+      </c>
+      <c r="B616" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="C616" t="n">
+        <v>32282.889</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1175.4</v>
+      </c>
+      <c r="B617" t="n">
+        <v>35.399</v>
+      </c>
+      <c r="C617" t="n">
+        <v>4618.999</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>1175.7</v>
+      </c>
+      <c r="B618" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="C618" t="n">
+        <v>13340.321</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="B620" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C620" t="n">
+        <v>28402.068</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="B621" t="n">
+        <v>175.581</v>
+      </c>
+      <c r="C621" t="n">
+        <v>31502.873</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>1173.4</v>
+      </c>
+      <c r="B622" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="C622" t="n">
+        <v>15812.296</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>1184.57</v>
+      </c>
+      <c r="B624" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="C624" t="n">
+        <v>18841.684</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="B625" t="n">
+        <v>172.749</v>
+      </c>
+      <c r="C625" t="n">
+        <v>29268.31</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1155.9</v>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1159.7</v>
+      </c>
+      <c r="B627" t="n">
+        <v>185.493</v>
+      </c>
+      <c r="C627" t="n">
+        <v>31438.134</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>1184.7</v>
+      </c>
+      <c r="B628" t="n">
+        <v>147.262</v>
+      </c>
+      <c r="C628" t="n">
+        <v>25450.33</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>1188.9</v>
+      </c>
+      <c r="B629" t="n">
+        <v>143.014</v>
+      </c>
+      <c r="C629" t="n">
+        <v>25882.171</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>1181.2</v>
+      </c>
+      <c r="B630" t="n">
+        <v>113.278</v>
+      </c>
+      <c r="C630" t="n">
+        <v>20975.584</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>1143.8</v>
+      </c>
+      <c r="B631" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="C631" t="n">
+        <v>18315.21</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1224.3</v>
+      </c>
+      <c r="B632" t="n">
+        <v>134.518</v>
+      </c>
+      <c r="C632" t="n">
+        <v>25144.382</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="B633" t="n">
+        <v>82.127</v>
+      </c>
+      <c r="C633" t="n">
+        <v>15297.559</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1203.4</v>
+      </c>
+      <c r="B634" t="n">
+        <v>162.837</v>
+      </c>
+      <c r="C634" t="n">
+        <v>33285.722</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B635" t="n">
+        <v>209.564</v>
+      </c>
+      <c r="C635" t="n">
+        <v>36182.006</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1178.8</v>
+      </c>
+      <c r="B636" t="n">
+        <v>191.157</v>
+      </c>
+      <c r="C636" t="n">
+        <v>31490.112</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="B637" t="n">
+        <v>277.531</v>
+      </c>
+      <c r="C637" t="n">
+        <v>52686.635</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1214.7</v>
+      </c>
+      <c r="B638" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="C638" t="n">
+        <v>20175.541</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>1154.2</v>
+      </c>
+      <c r="B639" t="n">
+        <v>254.876</v>
+      </c>
+      <c r="C639" t="n">
+        <v>48451.391</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="B640" t="n">
+        <v>199.653</v>
+      </c>
+      <c r="C640" t="n">
+        <v>40196.677</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>1164.7</v>
+      </c>
+      <c r="B641" t="n">
+        <v>176.997</v>
+      </c>
+      <c r="C641" t="n">
+        <v>30457.798</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1202.19</v>
+      </c>
+      <c r="B642" t="n">
+        <v>67.967</v>
+      </c>
+      <c r="C642" t="n">
+        <v>11710.358</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>1181.3</v>
+      </c>
+      <c r="B643" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="C643" t="n">
+        <v>25654.017</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>1166.2</v>
+      </c>
+      <c r="B644" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="C644" t="n">
+        <v>25276.795</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>1175.27</v>
+      </c>
+      <c r="B645" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="C645" t="n">
+        <v>18473.601</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>1210.3</v>
+      </c>
+      <c r="B646" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="C646" t="n">
+        <v>62403.82</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>1174.1</v>
+      </c>
+      <c r="B647" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="C647" t="n">
+        <v>55007.876</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>1222.7</v>
+      </c>
+      <c r="B648" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="C648" t="n">
+        <v>42420.382</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>1160.4</v>
+      </c>
+      <c r="B649" t="n">
+        <v>181.245</v>
+      </c>
+      <c r="C649" t="n">
+        <v>31772.741</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>1146.8</v>
+      </c>
+      <c r="B650" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="C650" t="n">
+        <v>20192.198</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="B651" t="n">
+        <v>168.501</v>
+      </c>
+      <c r="C651" t="n">
+        <v>29216.161</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>1209.5</v>
+      </c>
+      <c r="B652" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="C652" t="n">
+        <v>30857.672</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1184.5</v>
+      </c>
+      <c r="B653" t="n">
+        <v>300.187</v>
+      </c>
+      <c r="C653" t="n">
+        <v>53985.057</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1182.5</v>
+      </c>
+      <c r="B654" t="n">
+        <v>184.077</v>
+      </c>
+      <c r="C654" t="n">
+        <v>32075.54</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B655" t="n">
+        <v>117.526</v>
+      </c>
+      <c r="C655" t="n">
+        <v>28084.254</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>1216.5</v>
+      </c>
+      <c r="B656" t="n">
+        <v>152.925</v>
+      </c>
+      <c r="C656" t="n">
+        <v>28101.944</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B657" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="C657" t="n">
+        <v>46700.894</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1141.9</v>
+      </c>
+      <c r="B658" t="n">
+        <v>151.509</v>
+      </c>
+      <c r="C658" t="n">
+        <v>26880.263</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B659" t="n">
+        <v>154.341</v>
+      </c>
+      <c r="C659" t="n">
+        <v>42156.623</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1154.6</v>
+      </c>
+      <c r="B661" t="n">
+        <v>271.867</v>
+      </c>
+      <c r="C661" t="n">
+        <v>46068.855</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1172.04</v>
+      </c>
+      <c r="B662" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="C662" t="n">
+        <v>16396.913</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1203.9</v>
+      </c>
+      <c r="B663" t="n">
+        <v>249.212</v>
+      </c>
+      <c r="C663" t="n">
+        <v>43114.12</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr"/>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1160.7</v>
+      </c>
+      <c r="B665" t="n">
+        <v>312.931</v>
+      </c>
+      <c r="C665" t="n">
+        <v>55898.76</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="B666" t="n">
+        <v>646</v>
+      </c>
+      <c r="C666" t="n">
+        <v>768185.103</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr"/>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>59.471</v>
+      </c>
+      <c r="B668" t="n">
+        <v>743</v>
+      </c>
+      <c r="C668" t="n">
+        <v>3869026.536</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>158.589</v>
+      </c>
+      <c r="B669" t="n">
+        <v>720</v>
+      </c>
+      <c r="C669" t="n">
+        <v>6253884.144</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr"/>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="B671" t="n">
+        <v>649</v>
+      </c>
+      <c r="C671" t="n">
+        <v>5344449.894</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr"/>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="B673" t="n">
+        <v>744</v>
+      </c>
+      <c r="C673" t="n">
+        <v>3151824.875</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B674" t="n">
+        <v>744</v>
+      </c>
+      <c r="C674" t="n">
+        <v>3659218.148</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B675" t="n">
+        <v>744</v>
+      </c>
+      <c r="C675" t="n">
+        <v>5614641.484</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>62.303</v>
+      </c>
+      <c r="B676" t="n">
+        <v>744</v>
+      </c>
+      <c r="C676" t="n">
+        <v>3664267.249</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="B677" t="n">
+        <v>744</v>
+      </c>
+      <c r="C677" t="n">
+        <v>4332087.292</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="B678" t="n">
+        <v>743</v>
+      </c>
+      <c r="C678" t="n">
+        <v>2014688.642</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="B679" t="n">
+        <v>743</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3422578.824</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>84.958</v>
+      </c>
+      <c r="B680" t="n">
+        <v>63</v>
+      </c>
+      <c r="C680" t="n">
+        <v>3118618.102</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="B681" t="n">
+        <v>744</v>
+      </c>
+      <c r="C681" t="n">
+        <v>6381736.632</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>131.686</v>
+      </c>
+      <c r="B682" t="n">
+        <v>744</v>
+      </c>
+      <c r="C682" t="n">
+        <v>6346188.256</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="B683" t="n">
+        <v>744</v>
+      </c>
+      <c r="C683" t="n">
+        <v>4098621.448</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>133.102</v>
+      </c>
+      <c r="B684" t="n">
+        <v>718</v>
+      </c>
+      <c r="C684" t="n">
+        <v>6896012.648</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>70.79900000000001</v>
+      </c>
+      <c r="B686" t="n">
+        <v>720</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3465695.962</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr"/>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>65.13500000000001</v>
+      </c>
+      <c r="B688" t="n">
+        <v>744</v>
+      </c>
+      <c r="C688" t="n">
+        <v>4278521.703</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>46.727</v>
+      </c>
+      <c r="B689" t="n">
+        <v>744</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3555692.609</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>41.063</v>
+      </c>
+      <c r="B690" t="n">
+        <v>744</v>
+      </c>
+      <c r="C690" t="n">
+        <v>6269999.639</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>123.19</v>
+      </c>
+      <c r="B691" t="n">
+        <v>744</v>
+      </c>
+      <c r="C691" t="n">
+        <v>6994802.784</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>169.917</v>
+      </c>
+      <c r="B692" t="n">
+        <v>744</v>
+      </c>
+      <c r="C692" t="n">
+        <v>6995562.393</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B693" t="n">
+        <v>744</v>
+      </c>
+      <c r="C693" t="n">
+        <v>5510208.286</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="B694" t="n">
+        <v>744</v>
+      </c>
+      <c r="C694" t="n">
+        <v>7609983.596</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>79.295</v>
+      </c>
+      <c r="B695" t="n">
+        <v>743</v>
+      </c>
+      <c r="C695" t="n">
+        <v>6602562.844</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>155.757</v>
+      </c>
+      <c r="B696" t="n">
+        <v>690</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3371929.017</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="B699" t="n">
+        <v>744</v>
+      </c>
+      <c r="C699" t="n">
+        <v>6082931.648</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>35.399</v>
+      </c>
+      <c r="B700" t="n">
+        <v>744</v>
+      </c>
+      <c r="C700" t="n">
+        <v>5199266.976</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="B701" t="n">
+        <v>712</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3993142.83</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B703" t="n">
+        <v>744</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3870878.523</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>175.581</v>
+      </c>
+      <c r="B704" t="n">
+        <v>744</v>
+      </c>
+      <c r="C704" t="n">
+        <v>7440891.757</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="B705" t="n">
+        <v>695</v>
+      </c>
+      <c r="C705" t="n">
+        <v>5666375.922</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="B707" t="n">
+        <v>645</v>
+      </c>
+      <c r="C707" t="n">
+        <v>4479499.643</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>172.749</v>
+      </c>
+      <c r="B708" t="n">
+        <v>744</v>
+      </c>
+      <c r="C708" t="n">
+        <v>5023504.883</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>185.493</v>
+      </c>
+      <c r="B710" t="n">
+        <v>744</v>
+      </c>
+      <c r="C710" t="n">
+        <v>8784603.725</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>147.262</v>
+      </c>
+      <c r="B711" t="n">
+        <v>744</v>
+      </c>
+      <c r="C711" t="n">
+        <v>6372319.413</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>143.014</v>
+      </c>
+      <c r="B712" t="n">
+        <v>744</v>
+      </c>
+      <c r="C712" t="n">
+        <v>7633303.506</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>113.278</v>
+      </c>
+      <c r="B713" t="n">
+        <v>744</v>
+      </c>
+      <c r="C713" t="n">
+        <v>5482551.766</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="B714" t="n">
+        <v>744</v>
+      </c>
+      <c r="C714" t="n">
+        <v>5120507.417</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>134.518</v>
+      </c>
+      <c r="B715" t="n">
+        <v>744</v>
+      </c>
+      <c r="C715" t="n">
+        <v>4686253.309</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>82.127</v>
+      </c>
+      <c r="B716" t="n">
+        <v>744</v>
+      </c>
+      <c r="C716" t="n">
+        <v>5622885.428</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>162.837</v>
+      </c>
+      <c r="B717" t="n">
+        <v>744</v>
+      </c>
+      <c r="C717" t="n">
+        <v>6864966.122</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>209.564</v>
+      </c>
+      <c r="B718" t="n">
+        <v>744</v>
+      </c>
+      <c r="C718" t="n">
+        <v>5868075.116</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>191.157</v>
+      </c>
+      <c r="B719" t="n">
+        <v>744</v>
+      </c>
+      <c r="C719" t="n">
+        <v>5836860.464</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>277.531</v>
+      </c>
+      <c r="B720" t="n">
+        <v>744</v>
+      </c>
+      <c r="C720" t="n">
+        <v>8529791.299000001</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="B721" t="n">
+        <v>743</v>
+      </c>
+      <c r="C721" t="n">
+        <v>8242092.864</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>254.876</v>
+      </c>
+      <c r="B722" t="n">
+        <v>744</v>
+      </c>
+      <c r="C722" t="n">
+        <v>8755641.234999999</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>199.653</v>
+      </c>
+      <c r="B723" t="n">
+        <v>744</v>
+      </c>
+      <c r="C723" t="n">
+        <v>6219746.441</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>176.997</v>
+      </c>
+      <c r="B724" t="n">
+        <v>744</v>
+      </c>
+      <c r="C724" t="n">
+        <v>5603235.038</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>67.967</v>
+      </c>
+      <c r="B725" t="n">
+        <v>744</v>
+      </c>
+      <c r="C725" t="n">
+        <v>5051902.725</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="B726" t="n">
+        <v>696</v>
+      </c>
+      <c r="C726" t="n">
+        <v>5860509.546</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="B727" t="n">
+        <v>744</v>
+      </c>
+      <c r="C727" t="n">
+        <v>6566894.176</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="B728" t="n">
+        <v>744</v>
+      </c>
+      <c r="C728" t="n">
+        <v>4500535.081</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="B729" t="n">
+        <v>744</v>
+      </c>
+      <c r="C729" t="n">
+        <v>8539096.205</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="B730" t="n">
+        <v>744</v>
+      </c>
+      <c r="C730" t="n">
+        <v>5620063.693</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="B731" t="n">
+        <v>744</v>
+      </c>
+      <c r="C731" t="n">
+        <v>5373218.063</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>181.245</v>
+      </c>
+      <c r="B732" t="n">
+        <v>744</v>
+      </c>
+      <c r="C732" t="n">
+        <v>6710889.986</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="B733" t="n">
+        <v>744</v>
+      </c>
+      <c r="C733" t="n">
+        <v>4220892.509</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>168.501</v>
+      </c>
+      <c r="B734" t="n">
+        <v>744</v>
+      </c>
+      <c r="C734" t="n">
+        <v>4976688.044</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="B735" t="n">
+        <v>744</v>
+      </c>
+      <c r="C735" t="n">
+        <v>5370817.662</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>300.187</v>
+      </c>
+      <c r="B736" t="n">
+        <v>744</v>
+      </c>
+      <c r="C736" t="n">
+        <v>6755849.994</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>184.077</v>
+      </c>
+      <c r="B737" t="n">
+        <v>744</v>
+      </c>
+      <c r="C737" t="n">
+        <v>5485858.452</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>117.526</v>
+      </c>
+      <c r="B738" t="n">
+        <v>744</v>
+      </c>
+      <c r="C738" t="n">
+        <v>4918606.572</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>152.925</v>
+      </c>
+      <c r="B739" t="n">
+        <v>744</v>
+      </c>
+      <c r="C739" t="n">
+        <v>5186290.987</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="B740" t="n">
+        <v>744</v>
+      </c>
+      <c r="C740" t="n">
+        <v>6783362.308</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>151.509</v>
+      </c>
+      <c r="B741" t="n">
+        <v>744</v>
+      </c>
+      <c r="C741" t="n">
+        <v>4911612.976</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>154.341</v>
+      </c>
+      <c r="B742" t="n">
+        <v>696</v>
+      </c>
+      <c r="C742" t="n">
+        <v>6254351.355</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>271.867</v>
+      </c>
+      <c r="B744" t="n">
+        <v>744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>7086909.72</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="B745" t="n">
+        <v>744</v>
+      </c>
+      <c r="C745" t="n">
+        <v>7605656.386</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>249.212</v>
+      </c>
+      <c r="B746" t="n">
+        <v>628</v>
+      </c>
+      <c r="C746" t="n">
+        <v>7431053.92</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>312.931</v>
+      </c>
+      <c r="B748" t="n">
+        <v>744</v>
+      </c>
+      <c r="C748" t="n">
+        <v>8209581.99</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Скважины</t>
+          <t>Скважина+test_data_konkurs (1).xlsx ; УКПГ1АС</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Газ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Добыча</t>
+          <t>Газ+test_data_konkurs (1).xlsx ; УКПГ1АС</t>
         </is>
       </c>
     </row>
@@ -457,14 +452,10 @@
       <c r="B2" t="n">
         <v>2096.235</v>
       </c>
-      <c r="C2" t="n">
-        <v>2096.235</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -473,9 +464,6 @@
       <c r="B4" t="n">
         <v>1841.123</v>
       </c>
-      <c r="C4" t="n">
-        <v>1841.123</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -484,14 +472,10 @@
       <c r="B5" t="n">
         <v>4757.68</v>
       </c>
-      <c r="C5" t="n">
-        <v>4757.68</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -500,14 +484,10 @@
       <c r="B7" t="n">
         <v>3943.907</v>
       </c>
-      <c r="C7" t="n">
-        <v>3943.907</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -516,9 +496,6 @@
       <c r="B9" t="n">
         <v>1404.648</v>
       </c>
-      <c r="C9" t="n">
-        <v>1404.648</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,9 +504,6 @@
       <c r="B10" t="n">
         <v>1536.334</v>
       </c>
-      <c r="C10" t="n">
-        <v>1536.334</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -538,9 +512,6 @@
       <c r="B11" t="n">
         <v>1536.334</v>
       </c>
-      <c r="C11" t="n">
-        <v>1536.334</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -549,9 +520,6 @@
       <c r="B12" t="n">
         <v>1931.392</v>
       </c>
-      <c r="C12" t="n">
-        <v>1931.392</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -560,9 +528,6 @@
       <c r="B13" t="n">
         <v>3116.564</v>
       </c>
-      <c r="C13" t="n">
-        <v>3116.564</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -571,9 +536,6 @@
       <c r="B14" t="n">
         <v>1753.45</v>
       </c>
-      <c r="C14" t="n">
-        <v>1753.45</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -582,9 +544,6 @@
       <c r="B15" t="n">
         <v>1753.45</v>
       </c>
-      <c r="C15" t="n">
-        <v>1753.45</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -593,9 +552,6 @@
       <c r="B16" t="n">
         <v>223.016</v>
       </c>
-      <c r="C16" t="n">
-        <v>223.016</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -604,9 +560,6 @@
       <c r="B17" t="n">
         <v>1536.334</v>
       </c>
-      <c r="C17" t="n">
-        <v>1536.334</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -615,9 +568,6 @@
       <c r="B18" t="n">
         <v>4082.26</v>
       </c>
-      <c r="C18" t="n">
-        <v>4082.26</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -626,9 +576,6 @@
       <c r="B19" t="n">
         <v>6891.557</v>
       </c>
-      <c r="C19" t="n">
-        <v>6891.557</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -637,14 +584,10 @@
       <c r="B20" t="n">
         <v>3981.961</v>
       </c>
-      <c r="C20" t="n">
-        <v>3981.961</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -653,14 +596,10 @@
       <c r="B22" t="n">
         <v>2123.964</v>
       </c>
-      <c r="C22" t="n">
-        <v>2123.964</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -669,9 +608,6 @@
       <c r="B24" t="n">
         <v>2019.182</v>
       </c>
-      <c r="C24" t="n">
-        <v>2019.182</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -680,9 +616,6 @@
       <c r="B25" t="n">
         <v>1448.544</v>
       </c>
-      <c r="C25" t="n">
-        <v>1448.544</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -691,9 +624,6 @@
       <c r="B26" t="n">
         <v>1272.963</v>
       </c>
-      <c r="C26" t="n">
-        <v>1272.963</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -702,9 +632,6 @@
       <c r="B27" t="n">
         <v>3818.888</v>
       </c>
-      <c r="C27" t="n">
-        <v>3818.888</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -713,9 +640,6 @@
       <c r="B28" t="n">
         <v>5267.431</v>
       </c>
-      <c r="C28" t="n">
-        <v>5267.431</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -724,9 +648,6 @@
       <c r="B29" t="n">
         <v>4652.898</v>
       </c>
-      <c r="C29" t="n">
-        <v>4652.898</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -735,9 +656,6 @@
       <c r="B30" t="n">
         <v>2414.24</v>
       </c>
-      <c r="C30" t="n">
-        <v>2414.24</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -746,9 +664,6 @@
       <c r="B31" t="n">
         <v>2454.83</v>
       </c>
-      <c r="C31" t="n">
-        <v>2454.83</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -757,19 +672,14 @@
       <c r="B32" t="n">
         <v>4478.025</v>
       </c>
-      <c r="C32" t="n">
-        <v>4478.025</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -778,9 +688,6 @@
       <c r="B35" t="n">
         <v>5530.803</v>
       </c>
-      <c r="C35" t="n">
-        <v>5530.803</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -789,9 +696,6 @@
       <c r="B36" t="n">
         <v>1097.381</v>
       </c>
-      <c r="C36" t="n">
-        <v>1097.381</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -800,14 +704,10 @@
       <c r="B37" t="n">
         <v>1974.343</v>
       </c>
-      <c r="C37" t="n">
-        <v>1974.343</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -816,9 +716,6 @@
       <c r="B39" t="n">
         <v>4652.898</v>
       </c>
-      <c r="C39" t="n">
-        <v>4652.898</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -827,9 +724,6 @@
       <c r="B40" t="n">
         <v>5443.013</v>
       </c>
-      <c r="C40" t="n">
-        <v>5443.013</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -838,14 +732,10 @@
       <c r="B41" t="n">
         <v>2747.289</v>
       </c>
-      <c r="C41" t="n">
-        <v>2747.289</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -854,9 +744,6 @@
       <c r="B43" t="n">
         <v>2739.914</v>
       </c>
-      <c r="C43" t="n">
-        <v>2739.914</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -865,14 +752,10 @@
       <c r="B44" t="n">
         <v>5355.222</v>
       </c>
-      <c r="C44" t="n">
-        <v>5355.222</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -881,9 +764,6 @@
       <c r="B46" t="n">
         <v>5750.279</v>
       </c>
-      <c r="C46" t="n">
-        <v>5750.279</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -892,9 +772,6 @@
       <c r="B47" t="n">
         <v>4565.107</v>
       </c>
-      <c r="C47" t="n">
-        <v>4565.107</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -903,9 +780,6 @@
       <c r="B48" t="n">
         <v>4433.422</v>
       </c>
-      <c r="C48" t="n">
-        <v>4433.422</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -914,9 +788,6 @@
       <c r="B49" t="n">
         <v>3511.621</v>
       </c>
-      <c r="C49" t="n">
-        <v>3511.621</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -925,9 +796,6 @@
       <c r="B50" t="n">
         <v>3028.773</v>
       </c>
-      <c r="C50" t="n">
-        <v>3028.773</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -936,9 +804,6 @@
       <c r="B51" t="n">
         <v>4170.05</v>
       </c>
-      <c r="C51" t="n">
-        <v>4170.05</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -947,9 +812,6 @@
       <c r="B52" t="n">
         <v>2545.925</v>
       </c>
-      <c r="C52" t="n">
-        <v>2545.925</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -958,9 +820,6 @@
       <c r="B53" t="n">
         <v>5047.955</v>
       </c>
-      <c r="C53" t="n">
-        <v>5047.955</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -969,9 +828,6 @@
       <c r="B54" t="n">
         <v>6496.499</v>
       </c>
-      <c r="C54" t="n">
-        <v>6496.499</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -980,9 +836,6 @@
       <c r="B55" t="n">
         <v>5925.86</v>
       </c>
-      <c r="C55" t="n">
-        <v>5925.86</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -991,9 +844,6 @@
       <c r="B56" t="n">
         <v>8603.472</v>
       </c>
-      <c r="C56" t="n">
-        <v>8603.472</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1002,9 +852,6 @@
       <c r="B57" t="n">
         <v>3331.556</v>
       </c>
-      <c r="C57" t="n">
-        <v>3331.556</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1013,9 +860,6 @@
       <c r="B58" t="n">
         <v>7901.148</v>
       </c>
-      <c r="C58" t="n">
-        <v>7901.148</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1024,9 +868,6 @@
       <c r="B59" t="n">
         <v>6189.232</v>
       </c>
-      <c r="C59" t="n">
-        <v>6189.232</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1035,9 +876,6 @@
       <c r="B60" t="n">
         <v>5486.908</v>
       </c>
-      <c r="C60" t="n">
-        <v>5486.908</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1046,9 +884,6 @@
       <c r="B61" t="n">
         <v>2106.973</v>
       </c>
-      <c r="C61" t="n">
-        <v>2106.973</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1057,9 +892,6 @@
       <c r="B62" t="n">
         <v>4352.711</v>
       </c>
-      <c r="C62" t="n">
-        <v>4352.711</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1068,9 +900,6 @@
       <c r="B63" t="n">
         <v>4521.212</v>
       </c>
-      <c r="C63" t="n">
-        <v>4521.212</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1079,9 +908,6 @@
       <c r="B64" t="n">
         <v>4257.84</v>
       </c>
-      <c r="C64" t="n">
-        <v>4257.84</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1090,9 +916,6 @@
       <c r="B65" t="n">
         <v>8735.156999999999</v>
       </c>
-      <c r="C65" t="n">
-        <v>8735.156999999999</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1101,9 +924,6 @@
       <c r="B66" t="n">
         <v>8735.156999999999</v>
       </c>
-      <c r="C66" t="n">
-        <v>8735.156999999999</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1112,9 +932,6 @@
       <c r="B67" t="n">
         <v>6891.557</v>
       </c>
-      <c r="C67" t="n">
-        <v>6891.557</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1123,9 +940,6 @@
       <c r="B68" t="n">
         <v>5618.594</v>
       </c>
-      <c r="C68" t="n">
-        <v>5618.594</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1134,9 +948,6 @@
       <c r="B69" t="n">
         <v>3336.04</v>
       </c>
-      <c r="C69" t="n">
-        <v>3336.04</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1145,9 +956,6 @@
       <c r="B70" t="n">
         <v>5223.536</v>
       </c>
-      <c r="C70" t="n">
-        <v>5223.536</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1156,9 +964,6 @@
       <c r="B71" t="n">
         <v>5530.803</v>
       </c>
-      <c r="C71" t="n">
-        <v>5530.803</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1167,9 +972,6 @@
       <c r="B72" t="n">
         <v>9305.796</v>
       </c>
-      <c r="C72" t="n">
-        <v>9305.796</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1178,9 +980,6 @@
       <c r="B73" t="n">
         <v>5706.384</v>
       </c>
-      <c r="C73" t="n">
-        <v>5706.384</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1189,9 +988,6 @@
       <c r="B74" t="n">
         <v>3643.306</v>
       </c>
-      <c r="C74" t="n">
-        <v>3643.306</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1200,9 +996,6 @@
       <c r="B75" t="n">
         <v>4740.689</v>
       </c>
-      <c r="C75" t="n">
-        <v>4740.689</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1211,9 +1004,6 @@
       <c r="B76" t="n">
         <v>6759.87</v>
       </c>
-      <c r="C76" t="n">
-        <v>6759.87</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1222,9 +1012,6 @@
       <c r="B77" t="n">
         <v>4696.793</v>
       </c>
-      <c r="C77" t="n">
-        <v>4696.793</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1233,14 +1020,10 @@
       <c r="B78" t="n">
         <v>4475.901</v>
       </c>
-      <c r="C78" t="n">
-        <v>4475.901</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1249,9 +1032,6 @@
       <c r="B80" t="n">
         <v>8427.889999999999</v>
       </c>
-      <c r="C80" t="n">
-        <v>8427.889999999999</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1260,9 +1040,6 @@
       <c r="B81" t="n">
         <v>2940.982</v>
       </c>
-      <c r="C81" t="n">
-        <v>2940.982</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1271,23 +1048,16 @@
       <c r="B82" t="n">
         <v>6521.043</v>
       </c>
-      <c r="C82" t="n">
-        <v>6521.043</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1901</v>
       </c>
       <c r="B84" t="n">
-        <v>9700.852000000001</v>
-      </c>
-      <c r="C84" t="n">
         <v>9700.852000000001</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Скважина+test_data_konkurs_.xlsx ; УКПГ1АС (2)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Скважина+test_data_konkurs_.xlsx ; УКПГ1АС</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Газ+test_data_konkurs (1).xlsx ; УКПГ1АС</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Газ+test_data_konkurs_.xlsx ; УКПГ1АС (2)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Газ+test_data_konkurs_.xlsx ; УКПГ1АС</t>
         </is>
       </c>
     </row>
@@ -450,18 +470,46 @@
         <v>1591</v>
       </c>
       <c r="B2" t="n">
+        <v>1254.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2096.235</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2096.235</v>
+      </c>
+      <c r="F2" t="n">
         <v>2096.235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1620</v>
       </c>
       <c r="B4" t="n">
+        <v>1166.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.471</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1841.123</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1841.123</v>
+      </c>
+      <c r="F4" t="n">
         <v>1841.123</v>
       </c>
     </row>
@@ -470,30 +518,74 @@
         <v>1630</v>
       </c>
       <c r="B5" t="n">
+        <v>1193.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158.589</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4757.68</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4757.68</v>
+      </c>
+      <c r="F5" t="n">
         <v>4757.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1631</v>
       </c>
       <c r="B7" t="n">
+        <v>1218.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3943.907</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3943.907</v>
+      </c>
+      <c r="F7" t="n">
         <v>3943.907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1640</v>
       </c>
       <c r="B9" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1404.648</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1404.648</v>
+      </c>
+      <c r="F9" t="n">
         <v>1404.648</v>
       </c>
     </row>
@@ -502,6 +594,18 @@
         <v>1641</v>
       </c>
       <c r="B10" t="n">
+        <v>1174.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="F10" t="n">
         <v>1536.334</v>
       </c>
     </row>
@@ -510,6 +614,18 @@
         <v>1642</v>
       </c>
       <c r="B11" t="n">
+        <v>1185.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="F11" t="n">
         <v>1536.334</v>
       </c>
     </row>
@@ -518,6 +634,18 @@
         <v>1650</v>
       </c>
       <c r="B12" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62.303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1931.392</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1931.392</v>
+      </c>
+      <c r="F12" t="n">
         <v>1931.392</v>
       </c>
     </row>
@@ -526,6 +654,18 @@
         <v>1651</v>
       </c>
       <c r="B13" t="n">
+        <v>1185.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3116.564</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3116.564</v>
+      </c>
+      <c r="F13" t="n">
         <v>3116.564</v>
       </c>
     </row>
@@ -534,6 +674,18 @@
         <v>1660</v>
       </c>
       <c r="B14" t="n">
+        <v>1161.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="F14" t="n">
         <v>1753.45</v>
       </c>
     </row>
@@ -542,6 +694,18 @@
         <v>1661</v>
       </c>
       <c r="B15" t="n">
+        <v>1159</v>
+      </c>
+      <c r="C15" t="n">
+        <v>56.639</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1753.45</v>
+      </c>
+      <c r="F15" t="n">
         <v>1753.45</v>
       </c>
     </row>
@@ -550,6 +714,18 @@
         <v>1662</v>
       </c>
       <c r="B16" t="n">
+        <v>1175.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>84.958</v>
+      </c>
+      <c r="D16" t="n">
+        <v>223.016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>223.016</v>
+      </c>
+      <c r="F16" t="n">
         <v>223.016</v>
       </c>
     </row>
@@ -558,6 +734,18 @@
         <v>1670</v>
       </c>
       <c r="B17" t="n">
+        <v>1173.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>49.559</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1536.334</v>
+      </c>
+      <c r="F17" t="n">
         <v>1536.334</v>
       </c>
     </row>
@@ -566,6 +754,18 @@
         <v>1671</v>
       </c>
       <c r="B18" t="n">
+        <v>1213.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131.686</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4082.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4082.26</v>
+      </c>
+      <c r="F18" t="n">
         <v>4082.26</v>
       </c>
     </row>
@@ -574,6 +774,18 @@
         <v>1680</v>
       </c>
       <c r="B19" t="n">
+        <v>1132.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="F19" t="n">
         <v>6891.557</v>
       </c>
     </row>
@@ -582,30 +794,76 @@
         <v>1681</v>
       </c>
       <c r="B20" t="n">
+        <v>1218.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>133.102</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3981.961</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3981.961</v>
+      </c>
+      <c r="F20" t="n">
         <v>3981.961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1682</v>
       </c>
       <c r="B22" t="n">
+        <v>1018.36</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70.79900000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2123.964</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2123.964</v>
+      </c>
+      <c r="F22" t="n">
         <v>2123.964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1198.9</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1690</v>
       </c>
       <c r="B24" t="n">
+        <v>1159.77</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65.13500000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2019.182</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2019.182</v>
+      </c>
+      <c r="F24" t="n">
         <v>2019.182</v>
       </c>
     </row>
@@ -614,6 +872,18 @@
         <v>1691</v>
       </c>
       <c r="B25" t="n">
+        <v>1191.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>46.727</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1448.544</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1448.544</v>
+      </c>
+      <c r="F25" t="n">
         <v>1448.544</v>
       </c>
     </row>
@@ -622,6 +892,18 @@
         <v>1700</v>
       </c>
       <c r="B26" t="n">
+        <v>1180.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41.063</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1272.963</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1272.963</v>
+      </c>
+      <c r="F26" t="n">
         <v>1272.963</v>
       </c>
     </row>
@@ -630,6 +912,18 @@
         <v>1701</v>
       </c>
       <c r="B27" t="n">
+        <v>1214.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>123.19</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3818.888</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3818.888</v>
+      </c>
+      <c r="F27" t="n">
         <v>3818.888</v>
       </c>
     </row>
@@ -638,6 +932,18 @@
         <v>1702</v>
       </c>
       <c r="B28" t="n">
+        <v>1135.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>169.917</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5267.431</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5267.431</v>
+      </c>
+      <c r="F28" t="n">
         <v>5267.431</v>
       </c>
     </row>
@@ -646,6 +952,18 @@
         <v>1710</v>
       </c>
       <c r="B29" t="n">
+        <v>1152.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="F29" t="n">
         <v>4652.898</v>
       </c>
     </row>
@@ -654,6 +972,18 @@
         <v>1711</v>
       </c>
       <c r="B30" t="n">
+        <v>1211.95</v>
+      </c>
+      <c r="C30" t="n">
+        <v>77.879</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2414.24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2414.24</v>
+      </c>
+      <c r="F30" t="n">
         <v>2414.24</v>
       </c>
     </row>
@@ -662,6 +992,18 @@
         <v>1720</v>
       </c>
       <c r="B31" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>79.295</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2454.83</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2454.83</v>
+      </c>
+      <c r="F31" t="n">
         <v>2454.83</v>
       </c>
     </row>
@@ -670,22 +1012,54 @@
         <v>1721</v>
       </c>
       <c r="B32" t="n">
+        <v>1163.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>155.757</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4478.025</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4478.025</v>
+      </c>
+      <c r="F32" t="n">
         <v>4478.025</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1730</v>
       </c>
       <c r="B35" t="n">
+        <v>1172.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="F35" t="n">
         <v>5530.803</v>
       </c>
     </row>
@@ -694,6 +1068,18 @@
         <v>1731</v>
       </c>
       <c r="B36" t="n">
+        <v>1175.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35.399</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1097.381</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1097.381</v>
+      </c>
+      <c r="F36" t="n">
         <v>1097.381</v>
       </c>
     </row>
@@ -702,18 +1088,46 @@
         <v>1740</v>
       </c>
       <c r="B37" t="n">
+        <v>1175.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1974.343</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1974.343</v>
+      </c>
+      <c r="F37" t="n">
         <v>1974.343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1741</v>
       </c>
       <c r="B39" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4652.898</v>
+      </c>
+      <c r="F39" t="n">
         <v>4652.898</v>
       </c>
     </row>
@@ -722,6 +1136,18 @@
         <v>1750</v>
       </c>
       <c r="B40" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>175.581</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5443.013</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5443.013</v>
+      </c>
+      <c r="F40" t="n">
         <v>5443.013</v>
       </c>
     </row>
@@ -730,18 +1156,46 @@
         <v>1751</v>
       </c>
       <c r="B41" t="n">
+        <v>1173.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2747.289</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2747.289</v>
+      </c>
+      <c r="F41" t="n">
         <v>2747.289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1752</v>
       </c>
       <c r="B43" t="n">
+        <v>1184.57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2739.914</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2739.914</v>
+      </c>
+      <c r="F43" t="n">
         <v>2739.914</v>
       </c>
     </row>
@@ -750,18 +1204,48 @@
         <v>1770</v>
       </c>
       <c r="B44" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>172.749</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5355.222</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5355.222</v>
+      </c>
+      <c r="F44" t="n">
         <v>5355.222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1155.9</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1771</v>
       </c>
       <c r="B46" t="n">
+        <v>1159.7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>185.493</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5750.279</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5750.279</v>
+      </c>
+      <c r="F46" t="n">
         <v>5750.279</v>
       </c>
     </row>
@@ -770,6 +1254,18 @@
         <v>1780</v>
       </c>
       <c r="B47" t="n">
+        <v>1184.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>147.262</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4565.107</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4565.107</v>
+      </c>
+      <c r="F47" t="n">
         <v>4565.107</v>
       </c>
     </row>
@@ -778,6 +1274,18 @@
         <v>1781</v>
       </c>
       <c r="B48" t="n">
+        <v>1188.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>143.014</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4433.422</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4433.422</v>
+      </c>
+      <c r="F48" t="n">
         <v>4433.422</v>
       </c>
     </row>
@@ -786,6 +1294,18 @@
         <v>1782</v>
       </c>
       <c r="B49" t="n">
+        <v>1181.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>113.278</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3511.621</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3511.621</v>
+      </c>
+      <c r="F49" t="n">
         <v>3511.621</v>
       </c>
     </row>
@@ -794,6 +1314,18 @@
         <v>1790</v>
       </c>
       <c r="B50" t="n">
+        <v>1143.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3028.773</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3028.773</v>
+      </c>
+      <c r="F50" t="n">
         <v>3028.773</v>
       </c>
     </row>
@@ -802,6 +1334,18 @@
         <v>1791</v>
       </c>
       <c r="B51" t="n">
+        <v>1224.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>134.518</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4170.05</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4170.05</v>
+      </c>
+      <c r="F51" t="n">
         <v>4170.05</v>
       </c>
     </row>
@@ -810,6 +1354,18 @@
         <v>1792</v>
       </c>
       <c r="B52" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>82.127</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2545.925</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2545.925</v>
+      </c>
+      <c r="F52" t="n">
         <v>2545.925</v>
       </c>
     </row>
@@ -818,6 +1374,18 @@
         <v>1800</v>
       </c>
       <c r="B53" t="n">
+        <v>1203.4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>162.837</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5047.955</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5047.955</v>
+      </c>
+      <c r="F53" t="n">
         <v>5047.955</v>
       </c>
     </row>
@@ -826,6 +1394,18 @@
         <v>1801</v>
       </c>
       <c r="B54" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C54" t="n">
+        <v>209.564</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6496.499</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6496.499</v>
+      </c>
+      <c r="F54" t="n">
         <v>6496.499</v>
       </c>
     </row>
@@ -834,6 +1414,18 @@
         <v>1802</v>
       </c>
       <c r="B55" t="n">
+        <v>1178.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>191.157</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5925.86</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5925.86</v>
+      </c>
+      <c r="F55" t="n">
         <v>5925.86</v>
       </c>
     </row>
@@ -842,6 +1434,18 @@
         <v>1810</v>
       </c>
       <c r="B56" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>277.531</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8603.472</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8603.472</v>
+      </c>
+      <c r="F56" t="n">
         <v>8603.472</v>
       </c>
     </row>
@@ -850,6 +1454,18 @@
         <v>1811</v>
       </c>
       <c r="B57" t="n">
+        <v>1214.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3331.556</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3331.556</v>
+      </c>
+      <c r="F57" t="n">
         <v>3331.556</v>
       </c>
     </row>
@@ -858,6 +1474,18 @@
         <v>1812</v>
       </c>
       <c r="B58" t="n">
+        <v>1154.2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>254.876</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7901.148</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7901.148</v>
+      </c>
+      <c r="F58" t="n">
         <v>7901.148</v>
       </c>
     </row>
@@ -866,6 +1494,18 @@
         <v>1820</v>
       </c>
       <c r="B59" t="n">
+        <v>1201.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>199.653</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6189.232</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6189.232</v>
+      </c>
+      <c r="F59" t="n">
         <v>6189.232</v>
       </c>
     </row>
@@ -874,6 +1514,18 @@
         <v>1821</v>
       </c>
       <c r="B60" t="n">
+        <v>1164.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>176.997</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5486.908</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5486.908</v>
+      </c>
+      <c r="F60" t="n">
         <v>5486.908</v>
       </c>
     </row>
@@ -882,6 +1534,18 @@
         <v>1822</v>
       </c>
       <c r="B61" t="n">
+        <v>1202.19</v>
+      </c>
+      <c r="C61" t="n">
+        <v>67.967</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2106.973</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2106.973</v>
+      </c>
+      <c r="F61" t="n">
         <v>2106.973</v>
       </c>
     </row>
@@ -890,6 +1554,18 @@
         <v>1830</v>
       </c>
       <c r="B62" t="n">
+        <v>1181.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>150.093</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4352.711</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4352.711</v>
+      </c>
+      <c r="F62" t="n">
         <v>4352.711</v>
       </c>
     </row>
@@ -898,6 +1574,18 @@
         <v>1831</v>
       </c>
       <c r="B63" t="n">
+        <v>1166.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>145.846</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4521.212</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4521.212</v>
+      </c>
+      <c r="F63" t="n">
         <v>4521.212</v>
       </c>
     </row>
@@ -906,6 +1594,18 @@
         <v>1832</v>
       </c>
       <c r="B64" t="n">
+        <v>1175.27</v>
+      </c>
+      <c r="C64" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4257.84</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4257.84</v>
+      </c>
+      <c r="F64" t="n">
         <v>4257.84</v>
       </c>
     </row>
@@ -914,6 +1614,18 @@
         <v>1840</v>
       </c>
       <c r="B65" t="n">
+        <v>1210.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="F65" t="n">
         <v>8735.156999999999</v>
       </c>
     </row>
@@ -922,6 +1634,18 @@
         <v>1841</v>
       </c>
       <c r="B66" t="n">
+        <v>1174.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>281.779</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8735.156999999999</v>
+      </c>
+      <c r="F66" t="n">
         <v>8735.156999999999</v>
       </c>
     </row>
@@ -930,6 +1654,18 @@
         <v>1842</v>
       </c>
       <c r="B67" t="n">
+        <v>1222.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>222.308</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6891.557</v>
+      </c>
+      <c r="F67" t="n">
         <v>6891.557</v>
       </c>
     </row>
@@ -938,6 +1674,18 @@
         <v>1850</v>
       </c>
       <c r="B68" t="n">
+        <v>1160.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>181.245</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5618.594</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5618.594</v>
+      </c>
+      <c r="F68" t="n">
         <v>5618.594</v>
       </c>
     </row>
@@ -946,6 +1694,18 @@
         <v>1851</v>
       </c>
       <c r="B69" t="n">
+        <v>1146.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>107.614</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3336.04</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3336.04</v>
+      </c>
+      <c r="F69" t="n">
         <v>3336.04</v>
       </c>
     </row>
@@ -954,6 +1714,18 @@
         <v>1860</v>
       </c>
       <c r="B70" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>168.501</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5223.536</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5223.536</v>
+      </c>
+      <c r="F70" t="n">
         <v>5223.536</v>
       </c>
     </row>
@@ -962,6 +1734,18 @@
         <v>1861</v>
       </c>
       <c r="B71" t="n">
+        <v>1209.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>178.413</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="F71" t="n">
         <v>5530.803</v>
       </c>
     </row>
@@ -970,6 +1754,18 @@
         <v>1863</v>
       </c>
       <c r="B72" t="n">
+        <v>1184.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>300.187</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9305.796</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9305.796</v>
+      </c>
+      <c r="F72" t="n">
         <v>9305.796</v>
       </c>
     </row>
@@ -978,6 +1774,18 @@
         <v>1870</v>
       </c>
       <c r="B73" t="n">
+        <v>1182.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>184.077</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5706.384</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5706.384</v>
+      </c>
+      <c r="F73" t="n">
         <v>5706.384</v>
       </c>
     </row>
@@ -986,6 +1794,18 @@
         <v>1871</v>
       </c>
       <c r="B74" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C74" t="n">
+        <v>117.526</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3643.306</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3643.306</v>
+      </c>
+      <c r="F74" t="n">
         <v>3643.306</v>
       </c>
     </row>
@@ -994,6 +1814,18 @@
         <v>1872</v>
       </c>
       <c r="B75" t="n">
+        <v>1216.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>152.925</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4740.689</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4740.689</v>
+      </c>
+      <c r="F75" t="n">
         <v>4740.689</v>
       </c>
     </row>
@@ -1002,6 +1834,18 @@
         <v>1880</v>
       </c>
       <c r="B76" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C76" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6759.87</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6759.87</v>
+      </c>
+      <c r="F76" t="n">
         <v>6759.87</v>
       </c>
     </row>
@@ -1010,6 +1854,18 @@
         <v>1881</v>
       </c>
       <c r="B77" t="n">
+        <v>1141.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>151.509</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4696.793</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4696.793</v>
+      </c>
+      <c r="F77" t="n">
         <v>4696.793</v>
       </c>
     </row>
@@ -1018,18 +1874,46 @@
         <v>1882</v>
       </c>
       <c r="B78" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C78" t="n">
+        <v>154.341</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4475.901</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4475.901</v>
+      </c>
+      <c r="F78" t="n">
         <v>4475.901</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1890</v>
       </c>
       <c r="B80" t="n">
+        <v>1154.6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>271.867</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8427.889999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8427.889999999999</v>
+      </c>
+      <c r="F80" t="n">
         <v>8427.889999999999</v>
       </c>
     </row>
@@ -1038,6 +1922,18 @@
         <v>1891</v>
       </c>
       <c r="B81" t="n">
+        <v>1172.04</v>
+      </c>
+      <c r="C81" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2940.982</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2940.982</v>
+      </c>
+      <c r="F81" t="n">
         <v>2940.982</v>
       </c>
     </row>
@@ -1046,18 +1942,46 @@
         <v>1900</v>
       </c>
       <c r="B82" t="n">
+        <v>1203.9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>249.212</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6521.043</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6521.043</v>
+      </c>
+      <c r="F82" t="n">
         <v>6521.043</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1901</v>
       </c>
       <c r="B84" t="n">
+        <v>1160.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>312.931</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9700.852000000001</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9700.852000000001</v>
+      </c>
+      <c r="F84" t="n">
         <v>9700.852000000001</v>
       </c>
     </row>
